--- a/Data_file/รอเคลมต่างประเทศ.xlsx
+++ b/Data_file/รอเคลมต่างประเทศ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="71">
   <si>
     <t>partner_id</t>
   </si>
@@ -59,34 +59,13 @@
     <t>My Company: OB FIFO</t>
   </si>
   <si>
-    <t>MOG-รอเคลม ในประเทศ</t>
-  </si>
-  <si>
-    <t>SP0008100</t>
-  </si>
-  <si>
     <t>MO0032101</t>
-  </si>
-  <si>
-    <t>RS00006110</t>
-  </si>
-  <si>
-    <t>SP0003100</t>
-  </si>
-  <si>
-    <t>ACS0360100</t>
   </si>
   <si>
     <t>ACS004410B</t>
   </si>
   <si>
-    <t>MT00681110</t>
-  </si>
-  <si>
     <t>MA0603F12</t>
-  </si>
-  <si>
-    <t>WB0003C100</t>
   </si>
   <si>
     <t>FD0012A100</t>
@@ -95,16 +74,7 @@
     <t>RS00003101</t>
   </si>
   <si>
-    <t>SPH066100</t>
-  </si>
-  <si>
-    <t>FCA0006100</t>
-  </si>
-  <si>
     <t>RS0007101</t>
-  </si>
-  <si>
-    <t>ACS0031100</t>
   </si>
   <si>
     <t>MA332B101</t>
@@ -113,151 +83,22 @@
     <t>MA0532C110</t>
   </si>
   <si>
-    <t>FCA0065100</t>
-  </si>
-  <si>
-    <t>MAL160R1010</t>
-  </si>
-  <si>
-    <t>WB0004A100</t>
-  </si>
-  <si>
-    <t>MT00211210</t>
-  </si>
-  <si>
-    <t>MAL110C1010</t>
-  </si>
-  <si>
-    <t>MAL160L1010</t>
-  </si>
-  <si>
     <t>MA0048101</t>
-  </si>
-  <si>
-    <t>MO031N101</t>
-  </si>
-  <si>
-    <t>MU0002101</t>
-  </si>
-  <si>
-    <t>SP00282100</t>
-  </si>
-  <si>
-    <t>SP00212100</t>
-  </si>
-  <si>
-    <t>MO049E1210</t>
-  </si>
-  <si>
-    <t>MA0133101</t>
-  </si>
-  <si>
-    <t>MO006901111</t>
-  </si>
-  <si>
-    <t>SPO001100</t>
-  </si>
-  <si>
-    <t>SP0404101</t>
-  </si>
-  <si>
-    <t>SPH0069100</t>
-  </si>
-  <si>
-    <t>MT00431210</t>
-  </si>
-  <si>
-    <t>MA154B101</t>
-  </si>
-  <si>
-    <t>MAL000QL</t>
-  </si>
-  <si>
-    <t>MAL000QR</t>
-  </si>
-  <si>
-    <t>NFG05-H4-W1-1331</t>
-  </si>
-  <si>
-    <t>MSW0012103</t>
-  </si>
-  <si>
-    <t>MF0025163</t>
-  </si>
-  <si>
-    <t>MO0010101</t>
-  </si>
-  <si>
-    <t>MSW0004101.</t>
   </si>
   <si>
     <t>MA0154101</t>
   </si>
   <si>
-    <t>MO040S101</t>
-  </si>
-  <si>
-    <t>SPH261100</t>
-  </si>
-  <si>
-    <t>MT55TC101</t>
-  </si>
-  <si>
-    <t>MT71TCF100</t>
-  </si>
-  <si>
-    <t>SP0033100</t>
-  </si>
-  <si>
     <t>MO049EX1210</t>
-  </si>
-  <si>
-    <t>MT14TC101</t>
   </si>
   <si>
     <t>MO00421210</t>
   </si>
   <si>
-    <t>MT055E1210</t>
-  </si>
-  <si>
-    <t>SPW02N2110</t>
-  </si>
-  <si>
-    <t>SPW05N1110</t>
-  </si>
-  <si>
-    <t>FCA0083100</t>
-  </si>
-  <si>
-    <t>SP0103100</t>
-  </si>
-  <si>
-    <t>SPW0069200</t>
-  </si>
-  <si>
     <t>MO00691110</t>
   </si>
   <si>
-    <t>FU000F11105</t>
-  </si>
-  <si>
-    <t>MA0142101</t>
-  </si>
-  <si>
     <t>MA0502C110</t>
-  </si>
-  <si>
-    <t>MT055B+101</t>
-  </si>
-  <si>
-    <t>MT43TC101</t>
-  </si>
-  <si>
-    <t>SP00388</t>
-  </si>
-  <si>
-    <t>SPW0421100</t>
   </si>
   <si>
     <t>MOG-รอเคลม ต่างประเทศ</t>
@@ -865,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -914,7 +755,7 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B2" s="16">
         <v>45716</v>
@@ -926,13 +767,13 @@
         <v>45716</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9">
         <v>1</v>
@@ -946,7 +787,7 @@
     </row>
     <row r="3" spans="1:10" ht="29.4" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B3" s="16">
         <v>45716</v>
@@ -958,13 +799,13 @@
         <v>45716</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H3" s="13">
         <v>1</v>
@@ -978,7 +819,7 @@
     </row>
     <row r="4" spans="1:10" ht="29.4" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B4" s="16">
         <v>45716</v>
@@ -990,13 +831,13 @@
         <v>45716</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H4" s="13">
         <v>2</v>
@@ -1010,7 +851,7 @@
     </row>
     <row r="5" spans="1:10" ht="29.4" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B5" s="16">
         <v>45716</v>
@@ -1022,13 +863,13 @@
         <v>45716</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="H5" s="13">
         <v>2</v>
@@ -1042,7 +883,7 @@
     </row>
     <row r="6" spans="1:10" ht="29.4" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B6" s="16">
         <v>45716</v>
@@ -1054,13 +895,13 @@
         <v>45716</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="H6" s="13">
         <v>1</v>
@@ -1074,7 +915,7 @@
     </row>
     <row r="7" spans="1:10" ht="29.4" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B7" s="16">
         <v>45716</v>
@@ -1086,13 +927,13 @@
         <v>45716</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="H7" s="13">
         <v>1</v>
@@ -1106,7 +947,7 @@
     </row>
     <row r="8" spans="1:10" ht="29.4" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B8" s="16">
         <v>45716</v>
@@ -1118,13 +959,13 @@
         <v>45716</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="H8" s="13">
         <v>2</v>
@@ -1138,7 +979,7 @@
     </row>
     <row r="9" spans="1:10" ht="29.4" thickBot="1">
       <c r="A9" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B9" s="16">
         <v>45716</v>
@@ -1150,13 +991,13 @@
         <v>45716</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H9" s="13">
         <v>2</v>
@@ -1170,7 +1011,7 @@
     </row>
     <row r="10" spans="1:10" ht="29.4" thickBot="1">
       <c r="A10" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B10" s="16">
         <v>45716</v>
@@ -1182,13 +1023,13 @@
         <v>45716</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H10" s="13">
         <v>1</v>
@@ -1202,7 +1043,7 @@
     </row>
     <row r="11" spans="1:10" ht="29.4" thickBot="1">
       <c r="A11" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B11" s="16">
         <v>45716</v>
@@ -1214,13 +1055,13 @@
         <v>45716</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H11" s="13">
         <v>2</v>
@@ -1234,7 +1075,7 @@
     </row>
     <row r="12" spans="1:10" ht="29.4" thickBot="1">
       <c r="A12" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B12" s="16">
         <v>45716</v>
@@ -1246,13 +1087,13 @@
         <v>45716</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
@@ -1266,7 +1107,7 @@
     </row>
     <row r="13" spans="1:10" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B13" s="16">
         <v>45716</v>
@@ -1278,13 +1119,13 @@
         <v>45716</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H13" s="13">
         <v>1</v>
@@ -1298,7 +1139,7 @@
     </row>
     <row r="14" spans="1:10" ht="29.4" thickBot="1">
       <c r="A14" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B14" s="16">
         <v>45716</v>
@@ -1310,13 +1151,13 @@
         <v>45716</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H14" s="13">
         <v>1</v>
@@ -1330,7 +1171,7 @@
     </row>
     <row r="15" spans="1:10" ht="29.4" thickBot="1">
       <c r="A15" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B15" s="16">
         <v>45716</v>
@@ -1342,13 +1183,13 @@
         <v>45716</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H15" s="13">
         <v>4</v>
@@ -1362,7 +1203,7 @@
     </row>
     <row r="16" spans="1:10" ht="29.4" thickBot="1">
       <c r="A16" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B16" s="16">
         <v>45716</v>
@@ -1374,13 +1215,13 @@
         <v>45716</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H16" s="13">
         <v>1</v>
@@ -1394,7 +1235,7 @@
     </row>
     <row r="17" spans="1:10" ht="29.4" thickBot="1">
       <c r="A17" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B17" s="16">
         <v>45716</v>
@@ -1406,13 +1247,13 @@
         <v>45716</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H17" s="13">
         <v>1</v>
@@ -1426,7 +1267,7 @@
     </row>
     <row r="18" spans="1:10" ht="29.4" thickBot="1">
       <c r="A18" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B18" s="16">
         <v>45716</v>
@@ -1438,13 +1279,13 @@
         <v>45716</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H18" s="13">
         <v>2</v>
@@ -1458,7 +1299,7 @@
     </row>
     <row r="19" spans="1:10" ht="29.4" thickBot="1">
       <c r="A19" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B19" s="16">
         <v>45716</v>
@@ -1470,13 +1311,13 @@
         <v>45716</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H19" s="13">
         <v>1</v>
@@ -1490,7 +1331,7 @@
     </row>
     <row r="20" spans="1:10" ht="29.4" thickBot="1">
       <c r="A20" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B20" s="16">
         <v>45716</v>
@@ -1502,13 +1343,13 @@
         <v>45716</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H20" s="13">
         <v>1</v>
@@ -1522,7 +1363,7 @@
     </row>
     <row r="21" spans="1:10" ht="29.4" thickBot="1">
       <c r="A21" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B21" s="16">
         <v>45716</v>
@@ -1534,13 +1375,13 @@
         <v>45716</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="H21" s="13">
         <v>8</v>
@@ -1554,7 +1395,7 @@
     </row>
     <row r="22" spans="1:10" ht="29.4" thickBot="1">
       <c r="A22" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B22" s="16">
         <v>45716</v>
@@ -1566,13 +1407,13 @@
         <v>45716</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H22" s="13">
         <v>3</v>
@@ -1586,7 +1427,7 @@
     </row>
     <row r="23" spans="1:10" ht="29.4" thickBot="1">
       <c r="A23" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B23" s="16">
         <v>45716</v>
@@ -1598,13 +1439,13 @@
         <v>45716</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H23" s="13">
         <v>1</v>
@@ -1618,7 +1459,7 @@
     </row>
     <row r="24" spans="1:10" ht="29.4" thickBot="1">
       <c r="A24" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B24" s="16">
         <v>45716</v>
@@ -1630,13 +1471,13 @@
         <v>45716</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H24" s="13">
         <v>1</v>
@@ -1650,7 +1491,7 @@
     </row>
     <row r="25" spans="1:10" ht="29.4" thickBot="1">
       <c r="A25" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B25" s="16">
         <v>45716</v>
@@ -1662,13 +1503,13 @@
         <v>45716</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H25" s="13">
         <v>4</v>
@@ -1682,7 +1523,7 @@
     </row>
     <row r="26" spans="1:10" ht="29.4" thickBot="1">
       <c r="A26" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B26" s="16">
         <v>45716</v>
@@ -1694,13 +1535,13 @@
         <v>45716</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H26" s="13">
         <v>1</v>
@@ -1714,7 +1555,7 @@
     </row>
     <row r="27" spans="1:10" ht="29.4" thickBot="1">
       <c r="A27" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B27" s="16">
         <v>45716</v>
@@ -1726,13 +1567,13 @@
         <v>45716</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="H27" s="13">
         <v>2</v>
@@ -1746,7 +1587,7 @@
     </row>
     <row r="28" spans="1:10" ht="29.4" thickBot="1">
       <c r="A28" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B28" s="16">
         <v>45716</v>
@@ -1758,13 +1599,13 @@
         <v>45716</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="H28" s="13">
         <v>4</v>
@@ -1778,7 +1619,7 @@
     </row>
     <row r="29" spans="1:10" ht="29.4" thickBot="1">
       <c r="A29" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B29" s="16">
         <v>45716</v>
@@ -1790,13 +1631,13 @@
         <v>45716</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="H29" s="13">
         <v>2</v>
@@ -1810,7 +1651,7 @@
     </row>
     <row r="30" spans="1:10" ht="29.4" thickBot="1">
       <c r="A30" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B30" s="16">
         <v>45716</v>
@@ -1822,13 +1663,13 @@
         <v>45716</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H30" s="13">
         <v>1</v>
@@ -1842,7 +1683,7 @@
     </row>
     <row r="31" spans="1:10" ht="29.4" thickBot="1">
       <c r="A31" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B31" s="16">
         <v>45716</v>
@@ -1854,13 +1695,13 @@
         <v>45716</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H31" s="13">
         <v>5</v>
@@ -1874,7 +1715,7 @@
     </row>
     <row r="32" spans="1:10" ht="29.4" thickBot="1">
       <c r="A32" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B32" s="16">
         <v>45716</v>
@@ -1886,13 +1727,13 @@
         <v>45716</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H32" s="13">
         <v>2</v>
@@ -1906,7 +1747,7 @@
     </row>
     <row r="33" spans="1:10" ht="29.4" thickBot="1">
       <c r="A33" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B33" s="16">
         <v>45716</v>
@@ -1918,13 +1759,13 @@
         <v>45716</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H33" s="13">
         <v>3</v>
@@ -1938,7 +1779,7 @@
     </row>
     <row r="34" spans="1:10" ht="29.4" thickBot="1">
       <c r="A34" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B34" s="16">
         <v>45716</v>
@@ -1950,13 +1791,13 @@
         <v>45716</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H34" s="13">
         <v>1</v>
@@ -1970,7 +1811,7 @@
     </row>
     <row r="35" spans="1:10" ht="29.4" thickBot="1">
       <c r="A35" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B35" s="16">
         <v>45716</v>
@@ -1982,13 +1823,13 @@
         <v>45716</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H35" s="13">
         <v>2</v>
@@ -2002,7 +1843,7 @@
     </row>
     <row r="36" spans="1:10" ht="29.4" thickBot="1">
       <c r="A36" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B36" s="16">
         <v>45716</v>
@@ -2014,13 +1855,13 @@
         <v>45716</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H36" s="13">
         <v>1</v>
@@ -2034,7 +1875,7 @@
     </row>
     <row r="37" spans="1:10" ht="29.4" thickBot="1">
       <c r="A37" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B37" s="16">
         <v>45716</v>
@@ -2046,13 +1887,13 @@
         <v>45716</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H37" s="13">
         <v>1</v>
@@ -2066,7 +1907,7 @@
     </row>
     <row r="38" spans="1:10" ht="29.4" thickBot="1">
       <c r="A38" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B38" s="16">
         <v>45716</v>
@@ -2078,13 +1919,13 @@
         <v>45716</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H38" s="13">
         <v>3</v>
@@ -2098,7 +1939,7 @@
     </row>
     <row r="39" spans="1:10" ht="29.4" thickBot="1">
       <c r="A39" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B39" s="16">
         <v>45716</v>
@@ -2110,13 +1951,13 @@
         <v>45716</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H39" s="13">
         <v>1</v>
@@ -2130,7 +1971,7 @@
     </row>
     <row r="40" spans="1:10" ht="29.4" thickBot="1">
       <c r="A40" s="10" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B40" s="16">
         <v>45716</v>
@@ -2142,13 +1983,13 @@
         <v>45716</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H40" s="13">
         <v>2</v>
@@ -2162,7 +2003,7 @@
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B41" s="16">
         <v>45716</v>
@@ -2174,13 +2015,13 @@
         <v>45716</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -2194,7 +2035,7 @@
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B42" s="16">
         <v>45716</v>
@@ -2206,13 +2047,13 @@
         <v>45716</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G42" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2226,7 +2067,7 @@
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B43" s="16">
         <v>45716</v>
@@ -2238,13 +2079,13 @@
         <v>45716</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -2258,7 +2099,7 @@
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B44" s="16">
         <v>45716</v>
@@ -2270,13 +2111,13 @@
         <v>45716</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -2290,7 +2131,7 @@
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B45" s="16">
         <v>45716</v>
@@ -2302,13 +2143,13 @@
         <v>45716</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -2322,7 +2163,7 @@
     </row>
     <row r="46" spans="1:10" ht="15" thickBot="1">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B46" s="16">
         <v>45716</v>
@@ -2334,13 +2175,13 @@
         <v>45716</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -2354,7 +2195,7 @@
     </row>
     <row r="47" spans="1:10" ht="15" thickBot="1">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B47" s="16">
         <v>45716</v>
@@ -2366,13 +2207,13 @@
         <v>45716</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G47" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -2386,7 +2227,7 @@
     </row>
     <row r="48" spans="1:10" ht="15" thickBot="1">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B48" s="16">
         <v>45716</v>
@@ -2398,13 +2239,13 @@
         <v>45716</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2418,7 +2259,7 @@
     </row>
     <row r="49" spans="1:10" ht="15" thickBot="1">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B49" s="16">
         <v>45716</v>
@@ -2430,13 +2271,13 @@
         <v>45716</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -2450,7 +2291,7 @@
     </row>
     <row r="50" spans="1:10" ht="15" thickBot="1">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B50" s="16">
         <v>45716</v>
@@ -2462,13 +2303,13 @@
         <v>45716</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -2482,7 +2323,7 @@
     </row>
     <row r="51" spans="1:10" ht="15" thickBot="1">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B51" s="16">
         <v>45716</v>
@@ -2494,13 +2335,13 @@
         <v>45716</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2514,7 +2355,7 @@
     </row>
     <row r="52" spans="1:10" ht="15" thickBot="1">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B52" s="16">
         <v>45716</v>
@@ -2526,13 +2367,13 @@
         <v>45716</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2546,7 +2387,7 @@
     </row>
     <row r="53" spans="1:10" ht="15" thickBot="1">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B53" s="16">
         <v>45716</v>
@@ -2558,13 +2399,13 @@
         <v>45716</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -2578,7 +2419,7 @@
     </row>
     <row r="54" spans="1:10" ht="15" thickBot="1">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B54" s="16">
         <v>45716</v>
@@ -2590,13 +2431,13 @@
         <v>45716</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G54" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -2610,7 +2451,7 @@
     </row>
     <row r="55" spans="1:10" ht="15" thickBot="1">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B55" s="16">
         <v>45716</v>
@@ -2622,13 +2463,13 @@
         <v>45716</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -2642,7 +2483,7 @@
     </row>
     <row r="56" spans="1:10" ht="15" thickBot="1">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B56" s="16">
         <v>45716</v>
@@ -2654,13 +2495,13 @@
         <v>45716</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G56" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -2674,7 +2515,7 @@
     </row>
     <row r="57" spans="1:10" ht="15" thickBot="1">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B57" s="16">
         <v>45716</v>
@@ -2686,13 +2527,13 @@
         <v>45716</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G57" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -2706,7 +2547,7 @@
     </row>
     <row r="58" spans="1:10" ht="15" thickBot="1">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B58" s="16">
         <v>45716</v>
@@ -2718,13 +2559,13 @@
         <v>45716</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -2738,7 +2579,7 @@
     </row>
     <row r="59" spans="1:10" ht="15" thickBot="1">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B59" s="16">
         <v>45716</v>
@@ -2750,13 +2591,13 @@
         <v>45716</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -2770,7 +2611,7 @@
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B60" s="16">
         <v>45716</v>
@@ -2782,13 +2623,13 @@
         <v>45716</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G60" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -2802,7 +2643,7 @@
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B61" s="16">
         <v>45716</v>
@@ -2814,13 +2655,13 @@
         <v>45716</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -2834,7 +2675,7 @@
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B62" s="16">
         <v>45716</v>
@@ -2846,13 +2687,13 @@
         <v>45716</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G62" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -2866,7 +2707,7 @@
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B63" s="16">
         <v>45716</v>
@@ -2878,13 +2719,13 @@
         <v>45716</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G63" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -2898,7 +2739,7 @@
     </row>
     <row r="64" spans="1:10" ht="15" thickBot="1">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B64" s="16">
         <v>45716</v>
@@ -2910,13 +2751,13 @@
         <v>45716</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G64" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -2930,7 +2771,7 @@
     </row>
     <row r="65" spans="1:10" ht="15" thickBot="1">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B65" s="16">
         <v>45716</v>
@@ -2942,13 +2783,13 @@
         <v>45716</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G65" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -2962,7 +2803,7 @@
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B66" s="16">
         <v>45716</v>
@@ -2974,13 +2815,13 @@
         <v>45716</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G66" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -2994,7 +2835,7 @@
     </row>
     <row r="67" spans="1:10" ht="15" thickBot="1">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B67" s="16">
         <v>45716</v>
@@ -3006,13 +2847,13 @@
         <v>45716</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G67" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -3026,7 +2867,7 @@
     </row>
     <row r="68" spans="1:10" ht="15" thickBot="1">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B68" s="16">
         <v>45716</v>
@@ -3038,13 +2879,13 @@
         <v>45716</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G68" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -3058,7 +2899,7 @@
     </row>
     <row r="69" spans="1:10" ht="15" thickBot="1">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B69" s="16">
         <v>45716</v>
@@ -3070,13 +2911,13 @@
         <v>45716</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G69" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -3090,7 +2931,7 @@
     </row>
     <row r="70" spans="1:10" ht="15" thickBot="1">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B70" s="16">
         <v>45716</v>
@@ -3102,13 +2943,13 @@
         <v>45716</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G70" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -3122,7 +2963,7 @@
     </row>
     <row r="71" spans="1:10" ht="15" thickBot="1">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B71" s="16">
         <v>45716</v>
@@ -3134,13 +2975,13 @@
         <v>45716</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G71" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -3154,7 +2995,7 @@
     </row>
     <row r="72" spans="1:10" ht="15" thickBot="1">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B72" s="16">
         <v>45716</v>
@@ -3166,13 +3007,13 @@
         <v>45716</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -3186,7 +3027,7 @@
     </row>
     <row r="73" spans="1:10" ht="15" thickBot="1">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B73" s="16">
         <v>45716</v>
@@ -3198,13 +3039,13 @@
         <v>45716</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G73" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -3218,7 +3059,7 @@
     </row>
     <row r="74" spans="1:10" ht="15" thickBot="1">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B74" s="16">
         <v>45716</v>
@@ -3230,13 +3071,13 @@
         <v>45716</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G74" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -3250,7 +3091,7 @@
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B75" s="16">
         <v>45716</v>
@@ -3262,13 +3103,13 @@
         <v>45716</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G75" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -3282,7 +3123,7 @@
     </row>
     <row r="76" spans="1:10" ht="15" thickBot="1">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B76" s="16">
         <v>45716</v>
@@ -3294,13 +3135,13 @@
         <v>45716</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G76" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -3314,7 +3155,7 @@
     </row>
     <row r="77" spans="1:10" ht="15" thickBot="1">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B77" s="16">
         <v>45716</v>
@@ -3326,13 +3167,13 @@
         <v>45716</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G77" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -3346,7 +3187,7 @@
     </row>
     <row r="78" spans="1:10" ht="15" thickBot="1">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B78" s="16">
         <v>45716</v>
@@ -3358,13 +3199,13 @@
         <v>45716</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G78" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -3378,7 +3219,7 @@
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B79" s="16">
         <v>45716</v>
@@ -3390,13 +3231,13 @@
         <v>45716</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G79" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -3410,7 +3251,7 @@
     </row>
     <row r="80" spans="1:10" ht="15" thickBot="1">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B80" s="16">
         <v>45716</v>
@@ -3422,13 +3263,13 @@
         <v>45716</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G80" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -3442,7 +3283,7 @@
     </row>
     <row r="81" spans="1:10" ht="15" thickBot="1">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B81" s="16">
         <v>45716</v>
@@ -3454,13 +3295,13 @@
         <v>45716</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G81" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -3474,7 +3315,7 @@
     </row>
     <row r="82" spans="1:10" ht="15" thickBot="1">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B82" s="16">
         <v>45716</v>
@@ -3486,13 +3327,13 @@
         <v>45716</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G82" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -3506,7 +3347,7 @@
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B83" s="16">
         <v>45716</v>
@@ -3518,13 +3359,13 @@
         <v>45716</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G83" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -3538,7 +3379,7 @@
     </row>
     <row r="84" spans="1:10" ht="15" thickBot="1">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B84" s="16">
         <v>45716</v>
@@ -3550,13 +3391,13 @@
         <v>45716</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G84" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -3570,7 +3411,7 @@
     </row>
     <row r="85" spans="1:10" ht="15" thickBot="1">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B85" s="16">
         <v>45716</v>
@@ -3582,13 +3423,13 @@
         <v>45716</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G85" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -3602,7 +3443,7 @@
     </row>
     <row r="86" spans="1:10" ht="15" thickBot="1">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B86" s="16">
         <v>45716</v>
@@ -3614,13 +3455,13 @@
         <v>45716</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G86" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -3634,7 +3475,7 @@
     </row>
     <row r="87" spans="1:10" ht="15" thickBot="1">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B87" s="16">
         <v>45716</v>
@@ -3646,13 +3487,13 @@
         <v>45716</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G87" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H87">
         <v>12</v>
@@ -3666,7 +3507,7 @@
     </row>
     <row r="88" spans="1:10" ht="15" thickBot="1">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B88" s="16">
         <v>45716</v>
@@ -3678,13 +3519,13 @@
         <v>45716</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G88" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -3698,7 +3539,7 @@
     </row>
     <row r="89" spans="1:10" ht="15" thickBot="1">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B89" s="16">
         <v>45716</v>
@@ -3710,13 +3551,13 @@
         <v>45716</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G89" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -3730,7 +3571,7 @@
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B90" s="16">
         <v>45716</v>
@@ -3742,13 +3583,13 @@
         <v>45716</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G90" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -3762,7 +3603,7 @@
     </row>
     <row r="91" spans="1:10" ht="15" thickBot="1">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B91" s="16">
         <v>45716</v>
@@ -3774,13 +3615,13 @@
         <v>45716</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G91" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -3794,7 +3635,7 @@
     </row>
     <row r="92" spans="1:10" ht="15" thickBot="1">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B92" s="16">
         <v>45716</v>
@@ -3806,13 +3647,13 @@
         <v>45716</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G92" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -3826,7 +3667,7 @@
     </row>
     <row r="93" spans="1:10" ht="15" thickBot="1">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B93" s="16">
         <v>45716</v>
@@ -3838,13 +3679,13 @@
         <v>45716</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G93" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -3858,7 +3699,7 @@
     </row>
     <row r="94" spans="1:10" ht="15" thickBot="1">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B94" s="16">
         <v>45716</v>
@@ -3870,13 +3711,13 @@
         <v>45716</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G94" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -3890,7 +3731,7 @@
     </row>
     <row r="95" spans="1:10" ht="15" thickBot="1">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B95" s="16">
         <v>45716</v>
@@ -3902,13 +3743,13 @@
         <v>45716</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G95" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -3922,7 +3763,7 @@
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B96" s="16">
         <v>45716</v>
@@ -3934,13 +3775,13 @@
         <v>45716</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G96" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -3954,7 +3795,7 @@
     </row>
     <row r="97" spans="1:10" ht="15" thickBot="1">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B97" s="16">
         <v>45716</v>
@@ -3966,13 +3807,13 @@
         <v>45716</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G97" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -3986,7 +3827,7 @@
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1">
       <c r="A98" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B98" s="16">
         <v>45716</v>
@@ -3998,13 +3839,13 @@
         <v>45716</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G98" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H98">
         <v>11</v>
@@ -4018,7 +3859,7 @@
     </row>
     <row r="99" spans="1:10" ht="15" thickBot="1">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B99" s="16">
         <v>45716</v>
@@ -4030,13 +3871,13 @@
         <v>45716</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G99" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>5</v>
@@ -4050,7 +3891,7 @@
     </row>
     <row r="100" spans="1:10" ht="15" thickBot="1">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B100" s="16">
         <v>45716</v>
@@ -4062,13 +3903,13 @@
         <v>45716</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G100" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -4082,7 +3923,7 @@
     </row>
     <row r="101" spans="1:10" ht="15" thickBot="1">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B101" s="16">
         <v>45716</v>
@@ -4094,13 +3935,13 @@
         <v>45716</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -4114,7 +3955,7 @@
     </row>
     <row r="102" spans="1:10" ht="15" thickBot="1">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B102" s="16">
         <v>45716</v>
@@ -4126,13 +3967,13 @@
         <v>45716</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G102" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -4146,7 +3987,7 @@
     </row>
     <row r="103" spans="1:10" ht="15" thickBot="1">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B103" s="16">
         <v>45716</v>
@@ -4158,13 +3999,13 @@
         <v>45716</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -4178,7 +4019,7 @@
     </row>
     <row r="104" spans="1:10" ht="15" thickBot="1">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B104" s="16">
         <v>45716</v>
@@ -4190,13 +4031,13 @@
         <v>45716</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G104" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -4210,7 +4051,7 @@
     </row>
     <row r="105" spans="1:10" ht="15" thickBot="1">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B105" s="16">
         <v>45716</v>
@@ -4222,13 +4063,13 @@
         <v>45716</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G105" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="H105">
         <v>34</v>
@@ -4242,7 +4083,7 @@
     </row>
     <row r="106" spans="1:10" ht="15" thickBot="1">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B106" s="16">
         <v>45716</v>
@@ -4254,13 +4095,13 @@
         <v>45716</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G106" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -4274,7 +4115,7 @@
     </row>
     <row r="107" spans="1:10" ht="15" thickBot="1">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B107" s="16">
         <v>45716</v>
@@ -4286,13 +4127,13 @@
         <v>45716</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G107" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -4306,7 +4147,7 @@
     </row>
     <row r="108" spans="1:10" ht="15" thickBot="1">
       <c r="A108" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B108" s="16">
         <v>45716</v>
@@ -4318,13 +4159,13 @@
         <v>45716</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G108" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -4338,7 +4179,7 @@
     </row>
     <row r="109" spans="1:10" ht="15" thickBot="1">
       <c r="A109" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B109" s="16">
         <v>45716</v>
@@ -4350,13 +4191,13 @@
         <v>45716</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G109" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -4370,7 +4211,7 @@
     </row>
     <row r="110" spans="1:10" ht="15" thickBot="1">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B110" s="16">
         <v>45716</v>
@@ -4382,13 +4223,13 @@
         <v>45716</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G110" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -4402,7 +4243,7 @@
     </row>
     <row r="111" spans="1:10" ht="15" thickBot="1">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B111" s="16">
         <v>45716</v>
@@ -4414,13 +4255,13 @@
         <v>45716</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G111" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -4434,7 +4275,7 @@
     </row>
     <row r="112" spans="1:10" ht="15" thickBot="1">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B112" s="16">
         <v>45716</v>
@@ -4446,13 +4287,13 @@
         <v>45716</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G112" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -4466,7 +4307,7 @@
     </row>
     <row r="113" spans="1:10" ht="15" thickBot="1">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B113" s="16">
         <v>45716</v>
@@ -4478,13 +4319,13 @@
         <v>45716</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G113" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -4498,7 +4339,7 @@
     </row>
     <row r="114" spans="1:10" ht="15" thickBot="1">
       <c r="A114" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B114" s="16">
         <v>45716</v>
@@ -4510,13 +4351,13 @@
         <v>45716</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G114" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="H114">
         <v>5</v>
@@ -4530,7 +4371,7 @@
     </row>
     <row r="115" spans="1:10" ht="15" thickBot="1">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B115" s="16">
         <v>45716</v>
@@ -4542,13 +4383,13 @@
         <v>45716</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G115" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -4562,7 +4403,7 @@
     </row>
     <row r="116" spans="1:10" ht="15" thickBot="1">
       <c r="A116" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B116" s="16">
         <v>45716</v>
@@ -4574,13 +4415,13 @@
         <v>45716</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G116" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -4594,7 +4435,7 @@
     </row>
     <row r="117" spans="1:10" ht="15" thickBot="1">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B117" s="16">
         <v>45716</v>
@@ -4606,13 +4447,13 @@
         <v>45716</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G117" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -4626,7 +4467,7 @@
     </row>
     <row r="118" spans="1:10" ht="15" thickBot="1">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B118" s="16">
         <v>45716</v>
@@ -4638,13 +4479,13 @@
         <v>45716</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G118" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -4658,7 +4499,7 @@
     </row>
     <row r="119" spans="1:10" ht="15" thickBot="1">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B119" s="16">
         <v>45716</v>
@@ -4670,13 +4511,13 @@
         <v>45716</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G119" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -4690,7 +4531,7 @@
     </row>
     <row r="120" spans="1:10" ht="15" thickBot="1">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B120" s="16">
         <v>45716</v>
@@ -4702,13 +4543,13 @@
         <v>45716</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -4722,7 +4563,7 @@
     </row>
     <row r="121" spans="1:10" ht="15" thickBot="1">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B121" s="16">
         <v>45716</v>
@@ -4734,13 +4575,13 @@
         <v>45716</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G121" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -4754,7 +4595,7 @@
     </row>
     <row r="122" spans="1:10" ht="15" thickBot="1">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B122" s="16">
         <v>45716</v>
@@ -4766,13 +4607,13 @@
         <v>45716</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G122" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -4786,7 +4627,7 @@
     </row>
     <row r="123" spans="1:10" ht="15" thickBot="1">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B123" s="16">
         <v>45716</v>
@@ -4798,13 +4639,13 @@
         <v>45716</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G123" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -4818,7 +4659,7 @@
     </row>
     <row r="124" spans="1:10" ht="15" thickBot="1">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B124" s="16">
         <v>45716</v>
@@ -4830,13 +4671,13 @@
         <v>45716</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G124" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -4850,7 +4691,7 @@
     </row>
     <row r="125" spans="1:10" ht="15" thickBot="1">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B125" s="16">
         <v>45716</v>
@@ -4862,13 +4703,13 @@
         <v>45716</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G125" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -4882,7 +4723,7 @@
     </row>
     <row r="126" spans="1:10" ht="15" thickBot="1">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B126" s="16">
         <v>45716</v>
@@ -4894,13 +4735,13 @@
         <v>45716</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G126" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -4914,7 +4755,7 @@
     </row>
     <row r="127" spans="1:10" ht="15" thickBot="1">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B127" s="16">
         <v>45716</v>
@@ -4926,13 +4767,13 @@
         <v>45716</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G127" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -4946,7 +4787,7 @@
     </row>
     <row r="128" spans="1:10" ht="15" thickBot="1">
       <c r="A128" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B128" s="16">
         <v>45716</v>
@@ -4958,13 +4799,13 @@
         <v>45716</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G128" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -4978,7 +4819,7 @@
     </row>
     <row r="129" spans="1:10" ht="15" thickBot="1">
       <c r="A129" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B129" s="16">
         <v>45716</v>
@@ -4990,13 +4831,13 @@
         <v>45716</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G129" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -5010,7 +4851,7 @@
     </row>
     <row r="130" spans="1:10" ht="15" thickBot="1">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B130" s="16">
         <v>45716</v>
@@ -5022,13 +4863,13 @@
         <v>45716</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G130" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -5042,7 +4883,7 @@
     </row>
     <row r="131" spans="1:10" ht="15" thickBot="1">
       <c r="A131" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B131" s="16">
         <v>45716</v>
@@ -5054,13 +4895,13 @@
         <v>45716</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G131" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -5074,7 +4915,7 @@
     </row>
     <row r="132" spans="1:10" ht="15" thickBot="1">
       <c r="A132" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B132" s="16">
         <v>45716</v>
@@ -5086,13 +4927,13 @@
         <v>45716</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G132" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -5106,7 +4947,7 @@
     </row>
     <row r="133" spans="1:10" ht="15" thickBot="1">
       <c r="A133" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B133" s="16">
         <v>45716</v>
@@ -5118,13 +4959,13 @@
         <v>45716</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G133" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -5138,7 +4979,7 @@
     </row>
     <row r="134" spans="1:10" ht="15" thickBot="1">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B134" s="16">
         <v>45716</v>
@@ -5150,13 +4991,13 @@
         <v>45716</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G134" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H134">
         <v>7</v>
@@ -5170,7 +5011,7 @@
     </row>
     <row r="135" spans="1:10" ht="15" thickBot="1">
       <c r="A135" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B135" s="16">
         <v>45716</v>
@@ -5182,13 +5023,13 @@
         <v>45716</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G135" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -5202,7 +5043,7 @@
     </row>
     <row r="136" spans="1:10" ht="15" thickBot="1">
       <c r="A136" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B136" s="16">
         <v>45716</v>
@@ -5214,13 +5055,13 @@
         <v>45716</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G136" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -5234,7 +5075,7 @@
     </row>
     <row r="137" spans="1:10" ht="15" thickBot="1">
       <c r="A137" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B137" s="16">
         <v>45716</v>
@@ -5246,13 +5087,13 @@
         <v>45716</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G137" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -5266,7 +5107,7 @@
     </row>
     <row r="138" spans="1:10" ht="15" thickBot="1">
       <c r="A138" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B138" s="16">
         <v>45716</v>
@@ -5278,13 +5119,13 @@
         <v>45716</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G138" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -5298,7 +5139,7 @@
     </row>
     <row r="139" spans="1:10" ht="15" thickBot="1">
       <c r="A139" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B139" s="16">
         <v>45716</v>
@@ -5310,13 +5151,13 @@
         <v>45716</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G139" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -5330,7 +5171,7 @@
     </row>
     <row r="140" spans="1:10" ht="15" thickBot="1">
       <c r="A140" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B140" s="16">
         <v>45716</v>
@@ -5342,13 +5183,13 @@
         <v>45716</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G140" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -5362,7 +5203,7 @@
     </row>
     <row r="141" spans="1:10" ht="15" thickBot="1">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B141" s="16">
         <v>45716</v>
@@ -5374,13 +5215,13 @@
         <v>45716</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G141" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -5394,7 +5235,7 @@
     </row>
     <row r="142" spans="1:10" ht="15" thickBot="1">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B142" s="16">
         <v>45716</v>
@@ -5406,13 +5247,13 @@
         <v>45716</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G142" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -5426,7 +5267,7 @@
     </row>
     <row r="143" spans="1:10" ht="15" thickBot="1">
       <c r="A143" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B143" s="16">
         <v>45716</v>
@@ -5438,13 +5279,13 @@
         <v>45716</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G143" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -5458,7 +5299,7 @@
     </row>
     <row r="144" spans="1:10" ht="15" thickBot="1">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B144" s="16">
         <v>45716</v>
@@ -5470,13 +5311,13 @@
         <v>45716</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G144" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -5490,7 +5331,7 @@
     </row>
     <row r="145" spans="1:10" ht="15" thickBot="1">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B145" s="16">
         <v>45716</v>
@@ -5502,13 +5343,13 @@
         <v>45716</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G145" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -5522,7 +5363,7 @@
     </row>
     <row r="146" spans="1:10" ht="15" thickBot="1">
       <c r="A146" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B146" s="16">
         <v>45716</v>
@@ -5534,13 +5375,13 @@
         <v>45716</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G146" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H146">
         <v>69</v>
@@ -5554,7 +5395,7 @@
     </row>
     <row r="147" spans="1:10" ht="15" thickBot="1">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B147" s="16">
         <v>45716</v>
@@ -5566,13 +5407,13 @@
         <v>45716</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G147" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -5586,7 +5427,7 @@
     </row>
     <row r="148" spans="1:10" ht="15" thickBot="1">
       <c r="A148" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B148" s="16">
         <v>45716</v>
@@ -5598,13 +5439,13 @@
         <v>45716</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G148" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -5618,7 +5459,7 @@
     </row>
     <row r="149" spans="1:10" ht="15" thickBot="1">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B149" s="16">
         <v>45716</v>
@@ -5630,13 +5471,13 @@
         <v>45716</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G149" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -5650,7 +5491,7 @@
     </row>
     <row r="150" spans="1:10" ht="15" thickBot="1">
       <c r="A150" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B150" s="16">
         <v>45716</v>
@@ -5662,13 +5503,13 @@
         <v>45716</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G150" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -5682,7 +5523,7 @@
     </row>
     <row r="151" spans="1:10" ht="15" thickBot="1">
       <c r="A151" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B151" s="16">
         <v>45716</v>
@@ -5694,13 +5535,13 @@
         <v>45716</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G151" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -5714,7 +5555,7 @@
     </row>
     <row r="152" spans="1:10" ht="15" thickBot="1">
       <c r="A152" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B152" s="16">
         <v>45716</v>
@@ -5726,13 +5567,13 @@
         <v>45716</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G152" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -5746,7 +5587,7 @@
     </row>
     <row r="153" spans="1:10" ht="15" thickBot="1">
       <c r="A153" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B153" s="16">
         <v>45716</v>
@@ -5758,13 +5599,13 @@
         <v>45716</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G153" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -5778,7 +5619,7 @@
     </row>
     <row r="154" spans="1:10" ht="15" thickBot="1">
       <c r="A154" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B154" s="16">
         <v>45716</v>
@@ -5790,13 +5631,13 @@
         <v>45716</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G154" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -5810,7 +5651,7 @@
     </row>
     <row r="155" spans="1:10" ht="15" thickBot="1">
       <c r="A155" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B155" s="16">
         <v>45716</v>
@@ -5822,13 +5663,13 @@
         <v>45716</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G155" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -5842,7 +5683,7 @@
     </row>
     <row r="156" spans="1:10" ht="15" thickBot="1">
       <c r="A156" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B156" s="16">
         <v>45716</v>
@@ -5854,13 +5695,13 @@
         <v>45716</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G156" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -5874,7 +5715,7 @@
     </row>
     <row r="157" spans="1:10" ht="15" thickBot="1">
       <c r="A157" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B157" s="16">
         <v>45716</v>
@@ -5886,13 +5727,13 @@
         <v>45716</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G157" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -5906,7 +5747,7 @@
     </row>
     <row r="158" spans="1:10" ht="15" thickBot="1">
       <c r="A158" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B158" s="16">
         <v>45716</v>
@@ -5918,13 +5759,13 @@
         <v>45716</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G158" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -5938,7 +5779,7 @@
     </row>
     <row r="159" spans="1:10" ht="15" thickBot="1">
       <c r="A159" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B159" s="16">
         <v>45716</v>
@@ -5950,13 +5791,13 @@
         <v>45716</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G159" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -5970,7 +5811,7 @@
     </row>
     <row r="160" spans="1:10" ht="15" thickBot="1">
       <c r="A160" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B160" s="16">
         <v>45716</v>
@@ -5982,13 +5823,13 @@
         <v>45716</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G160" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -6002,7 +5843,7 @@
     </row>
     <row r="161" spans="1:10" ht="15" thickBot="1">
       <c r="A161" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B161" s="16">
         <v>45716</v>
@@ -6014,13 +5855,13 @@
         <v>45716</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G161" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -6034,7 +5875,7 @@
     </row>
     <row r="162" spans="1:10" ht="15" thickBot="1">
       <c r="A162" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B162" s="16">
         <v>45716</v>
@@ -6046,13 +5887,13 @@
         <v>45716</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G162" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -6066,7 +5907,7 @@
     </row>
     <row r="163" spans="1:10" ht="15" thickBot="1">
       <c r="A163" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B163" s="16">
         <v>45716</v>
@@ -6078,13 +5919,13 @@
         <v>45716</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G163" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -6098,7 +5939,7 @@
     </row>
     <row r="164" spans="1:10" ht="15" thickBot="1">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B164" s="16">
         <v>45716</v>
@@ -6110,13 +5951,13 @@
         <v>45716</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G164" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -6130,7 +5971,7 @@
     </row>
     <row r="165" spans="1:10" ht="15" thickBot="1">
       <c r="A165" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B165" s="16">
         <v>45716</v>
@@ -6142,13 +5983,13 @@
         <v>45716</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G165" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -6162,7 +6003,7 @@
     </row>
     <row r="166" spans="1:10" ht="15" thickBot="1">
       <c r="A166" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B166" s="16">
         <v>45716</v>
@@ -6174,13 +6015,13 @@
         <v>45716</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G166" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="H166">
         <v>3</v>
@@ -6194,7 +6035,7 @@
     </row>
     <row r="167" spans="1:10" ht="15" thickBot="1">
       <c r="A167" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B167" s="16">
         <v>45716</v>
@@ -6206,13 +6047,13 @@
         <v>45716</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G167" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -6226,7 +6067,7 @@
     </row>
     <row r="168" spans="1:10" ht="15" thickBot="1">
       <c r="A168" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B168" s="16">
         <v>45716</v>
@@ -6238,13 +6079,13 @@
         <v>45716</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G168" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -6258,7 +6099,7 @@
     </row>
     <row r="169" spans="1:10" ht="15" thickBot="1">
       <c r="A169" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B169" s="16">
         <v>45716</v>
@@ -6270,13 +6111,13 @@
         <v>45716</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G169" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -6290,7 +6131,7 @@
     </row>
     <row r="170" spans="1:10" ht="15" thickBot="1">
       <c r="A170" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B170" s="16">
         <v>45716</v>
@@ -6302,13 +6143,13 @@
         <v>45716</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G170" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -6322,7 +6163,7 @@
     </row>
     <row r="171" spans="1:10" ht="15" thickBot="1">
       <c r="A171" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B171" s="16">
         <v>45716</v>
@@ -6334,13 +6175,13 @@
         <v>45716</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G171" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -6354,7 +6195,7 @@
     </row>
     <row r="172" spans="1:10" ht="15" thickBot="1">
       <c r="A172" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B172" s="16">
         <v>45716</v>
@@ -6366,13 +6207,13 @@
         <v>45716</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G172" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -6386,7 +6227,7 @@
     </row>
     <row r="173" spans="1:10" ht="15" thickBot="1">
       <c r="A173" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B173" s="16">
         <v>45716</v>
@@ -6398,13 +6239,13 @@
         <v>45716</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G173" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -6418,7 +6259,7 @@
     </row>
     <row r="174" spans="1:10" ht="15" thickBot="1">
       <c r="A174" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B174" s="16">
         <v>45716</v>
@@ -6430,13 +6271,13 @@
         <v>45716</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G174" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -6450,7 +6291,7 @@
     </row>
     <row r="175" spans="1:10" ht="15" thickBot="1">
       <c r="A175" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B175" s="16">
         <v>45716</v>
@@ -6462,13 +6303,13 @@
         <v>45716</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G175" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -6482,7 +6323,7 @@
     </row>
     <row r="176" spans="1:10" ht="15" thickBot="1">
       <c r="A176" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B176" s="16">
         <v>45716</v>
@@ -6494,13 +6335,13 @@
         <v>45716</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G176" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -6514,7 +6355,7 @@
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1">
       <c r="A177" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B177" s="16">
         <v>45716</v>
@@ -6526,13 +6367,13 @@
         <v>45716</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G177" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="H177">
         <v>11</v>
@@ -6546,7 +6387,7 @@
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1">
       <c r="A178" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B178" s="16">
         <v>45716</v>
@@ -6558,13 +6399,13 @@
         <v>45716</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G178" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -6578,7 +6419,7 @@
     </row>
     <row r="179" spans="1:10" ht="15" thickBot="1">
       <c r="A179" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B179" s="16">
         <v>45716</v>
@@ -6590,13 +6431,13 @@
         <v>45716</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G179" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -6610,7 +6451,7 @@
     </row>
     <row r="180" spans="1:10" ht="15" thickBot="1">
       <c r="A180" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B180" s="16">
         <v>45716</v>
@@ -6622,13 +6463,13 @@
         <v>45716</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G180" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -6642,7 +6483,7 @@
     </row>
     <row r="181" spans="1:10" ht="15" thickBot="1">
       <c r="A181" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B181" s="16">
         <v>45716</v>
@@ -6654,13 +6495,13 @@
         <v>45716</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G181" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -6674,7 +6515,7 @@
     </row>
     <row r="182" spans="1:10" ht="15" thickBot="1">
       <c r="A182" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B182" s="16">
         <v>45716</v>
@@ -6686,13 +6527,13 @@
         <v>45716</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G182" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="H182">
         <v>25</v>
@@ -6706,7 +6547,7 @@
     </row>
     <row r="183" spans="1:10" ht="15" thickBot="1">
       <c r="A183" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B183" s="16">
         <v>45716</v>
@@ -6718,13 +6559,13 @@
         <v>45716</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G183" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -6738,7 +6579,7 @@
     </row>
     <row r="184" spans="1:10" ht="15" thickBot="1">
       <c r="A184" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B184" s="16">
         <v>45716</v>
@@ -6750,13 +6591,13 @@
         <v>45716</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G184" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="H184">
         <v>5</v>
@@ -6770,7 +6611,7 @@
     </row>
     <row r="185" spans="1:10" ht="15" thickBot="1">
       <c r="A185" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B185" s="16">
         <v>45716</v>
@@ -6782,13 +6623,13 @@
         <v>45716</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G185" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -6802,7 +6643,7 @@
     </row>
     <row r="186" spans="1:10" ht="15" thickBot="1">
       <c r="A186" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B186" s="16">
         <v>45716</v>
@@ -6814,13 +6655,13 @@
         <v>45716</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G186" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -6834,7 +6675,7 @@
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1">
       <c r="A187" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B187" s="16">
         <v>45716</v>
@@ -6846,13 +6687,13 @@
         <v>45716</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G187" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -6866,7 +6707,7 @@
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1">
       <c r="A188" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B188" s="16">
         <v>45716</v>
@@ -6878,13 +6719,13 @@
         <v>45716</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G188" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -6898,7 +6739,7 @@
     </row>
     <row r="189" spans="1:10" ht="15" thickBot="1">
       <c r="A189" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B189" s="16">
         <v>45716</v>
@@ -6910,13 +6751,13 @@
         <v>45716</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G189" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -6930,7 +6771,7 @@
     </row>
     <row r="190" spans="1:10" ht="15" thickBot="1">
       <c r="A190" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B190" s="16">
         <v>45716</v>
@@ -6942,13 +6783,13 @@
         <v>45716</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G190" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="H190">
         <v>74</v>
@@ -6961,3332 +6802,669 @@
       </c>
     </row>
     <row r="191" spans="1:10" ht="15" thickBot="1">
-      <c r="A191" t="s">
-        <v>11</v>
-      </c>
-      <c r="B191" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C191" t="s">
-        <v>10</v>
-      </c>
-      <c r="D191" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E191" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F191" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G191" t="s">
-        <v>33</v>
-      </c>
-      <c r="H191">
-        <v>1</v>
-      </c>
-      <c r="I191" s="15">
-        <v>3950</v>
-      </c>
-      <c r="J191">
-        <v>190</v>
-      </c>
+      <c r="B191" s="16"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="I191" s="15"/>
     </row>
     <row r="192" spans="1:10" ht="15" thickBot="1">
-      <c r="A192" t="s">
-        <v>11</v>
-      </c>
-      <c r="B192" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C192" t="s">
-        <v>10</v>
-      </c>
-      <c r="D192" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E192" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F192" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G192" t="s">
-        <v>34</v>
-      </c>
-      <c r="H192">
-        <v>4</v>
-      </c>
-      <c r="I192" s="15">
-        <v>4250</v>
-      </c>
-      <c r="J192">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="15" thickBot="1">
-      <c r="A193" t="s">
-        <v>11</v>
-      </c>
-      <c r="B193" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C193" t="s">
-        <v>10</v>
-      </c>
-      <c r="D193" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F193" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G193" t="s">
-        <v>30</v>
-      </c>
-      <c r="H193">
-        <v>1</v>
-      </c>
-      <c r="I193" s="15">
-        <v>4250</v>
-      </c>
-      <c r="J193">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="15" thickBot="1">
-      <c r="A194" t="s">
-        <v>11</v>
-      </c>
-      <c r="B194" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C194" t="s">
-        <v>10</v>
-      </c>
-      <c r="D194" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G194" t="s">
-        <v>18</v>
-      </c>
-      <c r="H194">
-        <v>1</v>
-      </c>
-      <c r="I194" s="15">
-        <v>1580</v>
-      </c>
-      <c r="J194">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="15" thickBot="1">
-      <c r="A195" t="s">
-        <v>11</v>
-      </c>
-      <c r="B195" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C195" t="s">
-        <v>10</v>
-      </c>
-      <c r="D195" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F195" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G195" t="s">
-        <v>20</v>
-      </c>
-      <c r="H195">
-        <v>1</v>
-      </c>
-      <c r="I195">
-        <v>97.62</v>
-      </c>
-      <c r="J195">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="15" thickBot="1">
-      <c r="A196" t="s">
-        <v>11</v>
-      </c>
-      <c r="B196" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C196" t="s">
-        <v>10</v>
-      </c>
-      <c r="D196" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E196" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F196" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G196" t="s">
-        <v>14</v>
-      </c>
-      <c r="H196">
-        <v>3</v>
-      </c>
-      <c r="I196">
-        <v>103.34</v>
-      </c>
-      <c r="J196">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="15" thickBot="1">
-      <c r="A197" t="s">
-        <v>11</v>
-      </c>
-      <c r="B197" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C197" t="s">
-        <v>10</v>
-      </c>
-      <c r="D197" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G197" t="s">
-        <v>39</v>
-      </c>
-      <c r="H197">
-        <v>1</v>
-      </c>
-      <c r="I197">
-        <v>180.13</v>
-      </c>
-      <c r="J197">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="15" thickBot="1">
-      <c r="A198" t="s">
-        <v>11</v>
-      </c>
-      <c r="B198" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C198" t="s">
-        <v>10</v>
-      </c>
-      <c r="D198" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G198" t="s">
-        <v>40</v>
-      </c>
-      <c r="H198">
-        <v>4</v>
-      </c>
-      <c r="I198" s="15">
-        <v>2828.06</v>
-      </c>
-      <c r="J198">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="15" thickBot="1">
-      <c r="A199" t="s">
-        <v>11</v>
-      </c>
-      <c r="B199" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C199" t="s">
-        <v>10</v>
-      </c>
-      <c r="D199" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F199" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G199" t="s">
-        <v>41</v>
-      </c>
-      <c r="H199">
-        <v>2</v>
-      </c>
-      <c r="I199">
-        <v>885.94</v>
-      </c>
-      <c r="J199">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="15" thickBot="1">
-      <c r="A200" t="s">
-        <v>11</v>
-      </c>
-      <c r="B200" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C200" t="s">
-        <v>10</v>
-      </c>
-      <c r="D200" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F200" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G200" t="s">
-        <v>29</v>
-      </c>
-      <c r="H200">
-        <v>1</v>
-      </c>
-      <c r="I200">
-        <v>608.87</v>
-      </c>
-      <c r="J200">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="15" thickBot="1">
-      <c r="A201" t="s">
-        <v>11</v>
-      </c>
-      <c r="B201" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C201" t="s">
-        <v>10</v>
-      </c>
-      <c r="D201" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F201" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G201" t="s">
-        <v>23</v>
-      </c>
-      <c r="H201">
-        <v>1</v>
-      </c>
-      <c r="I201">
-        <v>78.86</v>
-      </c>
-      <c r="J201">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="15" thickBot="1">
-      <c r="A202" t="s">
-        <v>11</v>
-      </c>
-      <c r="B202" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C202" t="s">
-        <v>10</v>
-      </c>
-      <c r="D202" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F202" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G202" t="s">
-        <v>42</v>
-      </c>
-      <c r="H202">
-        <v>1</v>
-      </c>
-      <c r="I202" s="15">
-        <v>2090.7399999999998</v>
-      </c>
-      <c r="J202">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="15" thickBot="1">
-      <c r="A203" t="s">
-        <v>11</v>
-      </c>
-      <c r="B203" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C203" t="s">
-        <v>10</v>
-      </c>
-      <c r="D203" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F203" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G203" t="s">
-        <v>18</v>
-      </c>
-      <c r="H203">
-        <v>3</v>
-      </c>
-      <c r="I203" s="15">
-        <v>1580</v>
-      </c>
-      <c r="J203">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="15" thickBot="1">
-      <c r="A204" t="s">
-        <v>11</v>
-      </c>
-      <c r="B204" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C204" t="s">
-        <v>10</v>
-      </c>
-      <c r="D204" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F204" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G204" t="s">
-        <v>43</v>
-      </c>
-      <c r="H204">
-        <v>3</v>
-      </c>
-      <c r="I204">
-        <v>26.93</v>
-      </c>
-      <c r="J204">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="15" thickBot="1">
-      <c r="A205" t="s">
-        <v>11</v>
-      </c>
-      <c r="B205" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C205" t="s">
-        <v>10</v>
-      </c>
-      <c r="D205" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E205" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F205" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G205" t="s">
-        <v>24</v>
-      </c>
-      <c r="H205">
-        <v>1</v>
-      </c>
-      <c r="I205">
-        <v>378.16</v>
-      </c>
-      <c r="J205">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="15" thickBot="1">
-      <c r="A206" t="s">
-        <v>11</v>
-      </c>
-      <c r="B206" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C206" t="s">
-        <v>10</v>
-      </c>
-      <c r="D206" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E206" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F206" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G206" t="s">
-        <v>38</v>
-      </c>
-      <c r="H206">
-        <v>2</v>
-      </c>
-      <c r="I206">
-        <v>59.95</v>
-      </c>
-      <c r="J206">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="15" thickBot="1">
-      <c r="A207" t="s">
-        <v>11</v>
-      </c>
-      <c r="B207" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C207" t="s">
-        <v>10</v>
-      </c>
-      <c r="D207" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E207" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F207" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G207" t="s">
-        <v>44</v>
-      </c>
-      <c r="H207">
-        <v>2</v>
-      </c>
-      <c r="I207">
-        <v>47.66</v>
-      </c>
-      <c r="J207">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="15" thickBot="1">
-      <c r="A208" t="s">
-        <v>11</v>
-      </c>
-      <c r="B208" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C208" t="s">
-        <v>10</v>
-      </c>
-      <c r="D208" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F208" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G208" t="s">
-        <v>45</v>
-      </c>
-      <c r="H208">
-        <v>1</v>
-      </c>
-      <c r="I208">
-        <v>55.66</v>
-      </c>
-      <c r="J208">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="15" thickBot="1">
-      <c r="A209" t="s">
-        <v>11</v>
-      </c>
-      <c r="B209" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C209" t="s">
-        <v>10</v>
-      </c>
-      <c r="D209" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G209" t="s">
-        <v>42</v>
-      </c>
-      <c r="H209">
-        <v>1</v>
-      </c>
-      <c r="I209" s="15">
-        <v>2090.7399999999998</v>
-      </c>
-      <c r="J209">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="15" thickBot="1">
-      <c r="A210" t="s">
-        <v>11</v>
-      </c>
-      <c r="B210" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C210" t="s">
-        <v>10</v>
-      </c>
-      <c r="D210" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E210" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F210" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G210" t="s">
-        <v>42</v>
-      </c>
-      <c r="H210">
-        <v>1</v>
-      </c>
-      <c r="I210" s="15">
-        <v>2090.7399999999998</v>
-      </c>
-      <c r="J210">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="15" thickBot="1">
-      <c r="A211" t="s">
-        <v>11</v>
-      </c>
-      <c r="B211" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C211" t="s">
-        <v>10</v>
-      </c>
-      <c r="D211" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E211" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F211" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G211" t="s">
-        <v>42</v>
-      </c>
-      <c r="H211">
-        <v>2</v>
-      </c>
-      <c r="I211" s="15">
-        <v>2090.7399999999998</v>
-      </c>
-      <c r="J211">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="15" thickBot="1">
-      <c r="A212" t="s">
-        <v>11</v>
-      </c>
-      <c r="B212" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C212" t="s">
-        <v>10</v>
-      </c>
-      <c r="D212" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E212" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F212" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G212" t="s">
-        <v>46</v>
-      </c>
-      <c r="H212">
-        <v>2</v>
-      </c>
-      <c r="I212" s="15">
-        <v>1518.06</v>
-      </c>
-      <c r="J212">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="15" thickBot="1">
-      <c r="A213" t="s">
-        <v>11</v>
-      </c>
-      <c r="B213" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C213" t="s">
-        <v>10</v>
-      </c>
-      <c r="D213" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E213" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F213" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G213" t="s">
-        <v>43</v>
-      </c>
-      <c r="H213">
-        <v>2</v>
-      </c>
-      <c r="I213">
-        <v>26.93</v>
-      </c>
-      <c r="J213">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="15" thickBot="1">
-      <c r="A214" t="s">
-        <v>11</v>
-      </c>
-      <c r="B214" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C214" t="s">
-        <v>10</v>
-      </c>
-      <c r="D214" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E214" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F214" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G214" t="s">
-        <v>47</v>
-      </c>
-      <c r="H214">
-        <v>15</v>
-      </c>
-      <c r="I214" s="15">
-        <v>1174.1500000000001</v>
-      </c>
-      <c r="J214">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="15" thickBot="1">
-      <c r="A215" t="s">
-        <v>11</v>
-      </c>
-      <c r="B215" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C215" t="s">
-        <v>10</v>
-      </c>
-      <c r="D215" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E215" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F215" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G215" t="s">
-        <v>48</v>
-      </c>
-      <c r="H215">
-        <v>2</v>
-      </c>
-      <c r="I215" s="15">
-        <v>4850</v>
-      </c>
-      <c r="J215">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="15" thickBot="1">
-      <c r="A216" t="s">
-        <v>11</v>
-      </c>
-      <c r="B216" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C216" t="s">
-        <v>10</v>
-      </c>
-      <c r="D216" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E216" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F216" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G216" t="s">
-        <v>49</v>
-      </c>
-      <c r="H216">
-        <v>2</v>
-      </c>
-      <c r="I216" s="15">
-        <v>4850</v>
-      </c>
-      <c r="J216">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="15" thickBot="1">
-      <c r="A217" t="s">
-        <v>11</v>
-      </c>
-      <c r="B217" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C217" t="s">
-        <v>10</v>
-      </c>
-      <c r="D217" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E217" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F217" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G217" t="s">
-        <v>50</v>
-      </c>
-      <c r="H217">
-        <v>1</v>
-      </c>
-      <c r="I217" s="15">
-        <v>2800</v>
-      </c>
-      <c r="J217">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="15" thickBot="1">
-      <c r="A218" t="s">
-        <v>11</v>
-      </c>
-      <c r="B218" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C218" t="s">
-        <v>10</v>
-      </c>
-      <c r="D218" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E218" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F218" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G218" t="s">
-        <v>51</v>
-      </c>
-      <c r="H218">
-        <v>1</v>
-      </c>
-      <c r="I218" s="15">
-        <v>3320.7</v>
-      </c>
-      <c r="J218">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="15" thickBot="1">
-      <c r="A219" t="s">
-        <v>11</v>
-      </c>
-      <c r="B219" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C219" t="s">
-        <v>10</v>
-      </c>
-      <c r="D219" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E219" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F219" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G219" t="s">
-        <v>52</v>
-      </c>
-      <c r="H219">
-        <v>1</v>
-      </c>
-      <c r="I219" s="15">
-        <v>1502.14</v>
-      </c>
-      <c r="J219">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="15" thickBot="1">
-      <c r="A220" t="s">
-        <v>11</v>
-      </c>
-      <c r="B220" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C220" t="s">
-        <v>10</v>
-      </c>
-      <c r="D220" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E220" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F220" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G220" t="s">
-        <v>53</v>
-      </c>
-      <c r="H220">
-        <v>1</v>
-      </c>
-      <c r="I220" s="15">
-        <v>3503.6</v>
-      </c>
-      <c r="J220">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="15" thickBot="1">
-      <c r="A221" t="s">
-        <v>11</v>
-      </c>
-      <c r="B221" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C221" t="s">
-        <v>10</v>
-      </c>
-      <c r="D221" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E221" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F221" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G221" t="s">
-        <v>54</v>
-      </c>
-      <c r="H221">
-        <v>1</v>
-      </c>
-      <c r="I221" s="15">
-        <v>1757.22</v>
-      </c>
-      <c r="J221">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="15" thickBot="1">
-      <c r="A222" t="s">
-        <v>11</v>
-      </c>
-      <c r="B222" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C222" t="s">
-        <v>10</v>
-      </c>
-      <c r="D222" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E222" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F222" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G222" t="s">
-        <v>55</v>
-      </c>
-      <c r="H222">
-        <v>1</v>
-      </c>
-      <c r="I222">
-        <v>921.67</v>
-      </c>
-      <c r="J222">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" ht="15" thickBot="1">
-      <c r="A223" t="s">
-        <v>11</v>
-      </c>
-      <c r="B223" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C223" t="s">
-        <v>10</v>
-      </c>
-      <c r="D223" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E223" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F223" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G223" t="s">
-        <v>33</v>
-      </c>
-      <c r="H223">
-        <v>1</v>
-      </c>
-      <c r="I223" s="15">
-        <v>3950</v>
-      </c>
-      <c r="J223">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" ht="15" thickBot="1">
-      <c r="A224" t="s">
-        <v>11</v>
-      </c>
-      <c r="B224" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C224" t="s">
-        <v>10</v>
-      </c>
-      <c r="D224" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E224" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F224" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G224" t="s">
-        <v>33</v>
-      </c>
-      <c r="H224">
-        <v>1</v>
-      </c>
-      <c r="I224" s="15">
-        <v>3950</v>
-      </c>
-      <c r="J224">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" ht="15" thickBot="1">
-      <c r="A225" t="s">
-        <v>11</v>
-      </c>
-      <c r="B225" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C225" t="s">
-        <v>10</v>
-      </c>
-      <c r="D225" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E225" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F225" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G225" t="s">
-        <v>56</v>
-      </c>
-      <c r="H225">
-        <v>1</v>
-      </c>
-      <c r="I225">
-        <v>467.88</v>
-      </c>
-      <c r="J225">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" ht="15" thickBot="1">
-      <c r="A226" t="s">
-        <v>11</v>
-      </c>
-      <c r="B226" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C226" t="s">
-        <v>10</v>
-      </c>
-      <c r="D226" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E226" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F226" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G226" t="s">
-        <v>57</v>
-      </c>
-      <c r="H226">
-        <v>2</v>
-      </c>
-      <c r="I226">
-        <v>45.17</v>
-      </c>
-      <c r="J226">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" ht="15" thickBot="1">
-      <c r="A227" t="s">
-        <v>11</v>
-      </c>
-      <c r="B227" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C227" t="s">
-        <v>10</v>
-      </c>
-      <c r="D227" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E227" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F227" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G227" t="s">
-        <v>58</v>
-      </c>
-      <c r="H227">
-        <v>1</v>
-      </c>
-      <c r="I227">
-        <v>560</v>
-      </c>
-      <c r="J227">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" ht="15" thickBot="1">
-      <c r="A228" t="s">
-        <v>11</v>
-      </c>
-      <c r="B228" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C228" t="s">
-        <v>10</v>
-      </c>
-      <c r="D228" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E228" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F228" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G228" t="s">
-        <v>59</v>
-      </c>
-      <c r="H228">
-        <v>1</v>
-      </c>
-      <c r="I228">
-        <v>655</v>
-      </c>
-      <c r="J228">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" ht="15" thickBot="1">
-      <c r="A229" t="s">
-        <v>11</v>
-      </c>
-      <c r="B229" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C229" t="s">
-        <v>10</v>
-      </c>
-      <c r="D229" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E229" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F229" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G229" t="s">
-        <v>12</v>
-      </c>
-      <c r="H229">
-        <v>1</v>
-      </c>
-      <c r="I229">
-        <v>18.86</v>
-      </c>
-      <c r="J229">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" ht="15" thickBot="1">
-      <c r="A230" t="s">
-        <v>11</v>
-      </c>
-      <c r="B230" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C230" t="s">
-        <v>10</v>
-      </c>
-      <c r="D230" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E230" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F230" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G230" t="s">
-        <v>60</v>
-      </c>
-      <c r="H230">
-        <v>1</v>
-      </c>
-      <c r="I230">
-        <v>27.58</v>
-      </c>
-      <c r="J230">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" ht="15" thickBot="1">
-      <c r="A231" t="s">
-        <v>11</v>
-      </c>
-      <c r="B231" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C231" t="s">
-        <v>10</v>
-      </c>
-      <c r="D231" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E231" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F231" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G231" t="s">
-        <v>61</v>
-      </c>
-      <c r="H231">
-        <v>1</v>
-      </c>
-      <c r="I231" s="15">
-        <v>3034.39</v>
-      </c>
-      <c r="J231">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" ht="15" thickBot="1">
-      <c r="A232" t="s">
-        <v>11</v>
-      </c>
-      <c r="B232" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C232" t="s">
-        <v>10</v>
-      </c>
-      <c r="D232" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E232" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F232" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G232" t="s">
-        <v>62</v>
-      </c>
-      <c r="H232">
-        <v>1</v>
-      </c>
-      <c r="I232">
-        <v>462.12</v>
-      </c>
-      <c r="J232">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" ht="15" thickBot="1">
-      <c r="A233" t="s">
-        <v>11</v>
-      </c>
-      <c r="B233" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C233" t="s">
-        <v>10</v>
-      </c>
-      <c r="D233" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E233" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F233" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
-      <c r="H233">
-        <v>1</v>
-      </c>
-      <c r="I233">
-        <v>18.86</v>
-      </c>
-      <c r="J233">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" ht="15" thickBot="1">
-      <c r="A234" t="s">
-        <v>11</v>
-      </c>
-      <c r="B234" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C234" t="s">
-        <v>10</v>
-      </c>
-      <c r="D234" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E234" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F234" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G234" t="s">
-        <v>60</v>
-      </c>
-      <c r="H234">
-        <v>1</v>
-      </c>
-      <c r="I234">
-        <v>27.58</v>
-      </c>
-      <c r="J234">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" ht="15" thickBot="1">
-      <c r="A235" t="s">
-        <v>11</v>
-      </c>
-      <c r="B235" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C235" t="s">
-        <v>10</v>
-      </c>
-      <c r="D235" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E235" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F235" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G235" t="s">
-        <v>63</v>
-      </c>
-      <c r="H235">
-        <v>1</v>
-      </c>
-      <c r="I235" s="15">
-        <v>4425.0200000000004</v>
-      </c>
-      <c r="J235">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" ht="15" thickBot="1">
-      <c r="A236" t="s">
-        <v>11</v>
-      </c>
-      <c r="B236" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C236" t="s">
-        <v>10</v>
-      </c>
-      <c r="D236" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E236" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F236" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G236" t="s">
-        <v>64</v>
-      </c>
-      <c r="H236">
-        <v>4</v>
-      </c>
-      <c r="I236" s="15">
-        <v>2200.2800000000002</v>
-      </c>
-      <c r="J236">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" ht="15" thickBot="1">
-      <c r="A237" t="s">
-        <v>11</v>
-      </c>
-      <c r="B237" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C237" t="s">
-        <v>10</v>
-      </c>
-      <c r="D237" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E237" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F237" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G237" t="s">
-        <v>65</v>
-      </c>
-      <c r="H237">
-        <v>1</v>
-      </c>
-      <c r="I237">
-        <v>414.7</v>
-      </c>
-      <c r="J237">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" ht="15" thickBot="1">
-      <c r="A238" t="s">
-        <v>11</v>
-      </c>
-      <c r="B238" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C238" t="s">
-        <v>10</v>
-      </c>
-      <c r="D238" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E238" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F238" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G238" t="s">
-        <v>66</v>
-      </c>
-      <c r="H238">
-        <v>1</v>
-      </c>
-      <c r="I238">
-        <v>203.56</v>
-      </c>
-      <c r="J238">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" ht="15" thickBot="1">
-      <c r="A239" t="s">
-        <v>11</v>
-      </c>
-      <c r="B239" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C239" t="s">
-        <v>10</v>
-      </c>
-      <c r="D239" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E239" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F239" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G239" t="s">
-        <v>36</v>
-      </c>
-      <c r="H239">
-        <v>3</v>
-      </c>
-      <c r="I239" s="15">
-        <v>3386.03</v>
-      </c>
-      <c r="J239">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" ht="15" thickBot="1">
-      <c r="A240" t="s">
-        <v>11</v>
-      </c>
-      <c r="B240" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C240" t="s">
-        <v>10</v>
-      </c>
-      <c r="D240" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E240" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F240" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G240" t="s">
-        <v>36</v>
-      </c>
-      <c r="H240">
-        <v>3</v>
-      </c>
-      <c r="I240" s="15">
-        <v>3386.03</v>
-      </c>
-      <c r="J240">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" ht="15" thickBot="1">
-      <c r="A241" t="s">
-        <v>11</v>
-      </c>
-      <c r="B241" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C241" t="s">
-        <v>10</v>
-      </c>
-      <c r="D241" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E241" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F241" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G241" t="s">
-        <v>36</v>
-      </c>
-      <c r="H241">
-        <v>3</v>
-      </c>
-      <c r="I241" s="15">
-        <v>3386.03</v>
-      </c>
-      <c r="J241">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" ht="15" thickBot="1">
-      <c r="A242" t="s">
-        <v>11</v>
-      </c>
-      <c r="B242" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C242" t="s">
-        <v>10</v>
-      </c>
-      <c r="D242" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E242" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F242" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G242" t="s">
-        <v>36</v>
-      </c>
-      <c r="H242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="15">
-        <v>3386.03</v>
-      </c>
-      <c r="J242">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" ht="15" thickBot="1">
-      <c r="A243" t="s">
-        <v>11</v>
-      </c>
-      <c r="B243" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C243" t="s">
-        <v>10</v>
-      </c>
-      <c r="D243" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E243" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F243" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G243" t="s">
-        <v>67</v>
-      </c>
-      <c r="H243">
-        <v>1</v>
-      </c>
-      <c r="I243">
-        <v>967.91</v>
-      </c>
-      <c r="J243">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" ht="15" thickBot="1">
-      <c r="A244" t="s">
-        <v>11</v>
-      </c>
-      <c r="B244" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C244" t="s">
-        <v>10</v>
-      </c>
-      <c r="D244" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E244" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F244" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G244" t="s">
-        <v>58</v>
-      </c>
-      <c r="H244">
-        <v>1</v>
-      </c>
-      <c r="I244">
-        <v>560</v>
-      </c>
-      <c r="J244">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" ht="15" thickBot="1">
-      <c r="A245" t="s">
-        <v>11</v>
-      </c>
-      <c r="B245" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C245" t="s">
-        <v>10</v>
-      </c>
-      <c r="D245" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E245" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F245" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
-      <c r="H245">
-        <v>1</v>
-      </c>
-      <c r="I245">
-        <v>18.86</v>
-      </c>
-      <c r="J245">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" ht="15" thickBot="1">
-      <c r="A246" t="s">
-        <v>11</v>
-      </c>
-      <c r="B246" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C246" t="s">
-        <v>10</v>
-      </c>
-      <c r="D246" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E246" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F246" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G246" t="s">
-        <v>60</v>
-      </c>
-      <c r="H246">
-        <v>1</v>
-      </c>
-      <c r="I246">
-        <v>27.58</v>
-      </c>
-      <c r="J246">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" ht="15" thickBot="1">
-      <c r="A247" t="s">
-        <v>11</v>
-      </c>
-      <c r="B247" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C247" t="s">
-        <v>10</v>
-      </c>
-      <c r="D247" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E247" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F247" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G247" t="s">
-        <v>26</v>
-      </c>
-      <c r="H247">
-        <v>1</v>
-      </c>
-      <c r="I247">
-        <v>103.18</v>
-      </c>
-      <c r="J247">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" ht="15" thickBot="1">
-      <c r="A248" t="s">
-        <v>11</v>
-      </c>
-      <c r="B248" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C248" t="s">
-        <v>10</v>
-      </c>
-      <c r="D248" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E248" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F248" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G248" t="s">
-        <v>16</v>
-      </c>
-      <c r="H248">
-        <v>1</v>
-      </c>
-      <c r="I248">
-        <v>186.7</v>
-      </c>
-      <c r="J248">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="15" thickBot="1">
-      <c r="A249" t="s">
-        <v>11</v>
-      </c>
-      <c r="B249" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C249" t="s">
-        <v>10</v>
-      </c>
-      <c r="D249" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E249" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F249" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G249" t="s">
-        <v>14</v>
-      </c>
-      <c r="H249">
-        <v>2</v>
-      </c>
-      <c r="I249">
-        <v>103.51</v>
-      </c>
-      <c r="J249">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" ht="15" thickBot="1">
-      <c r="A250" t="s">
-        <v>11</v>
-      </c>
-      <c r="B250" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C250" t="s">
-        <v>10</v>
-      </c>
-      <c r="D250" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E250" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F250" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G250" t="s">
-        <v>14</v>
-      </c>
-      <c r="H250">
-        <v>1</v>
-      </c>
-      <c r="I250">
-        <v>103.51</v>
-      </c>
-      <c r="J250">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" ht="15" thickBot="1">
-      <c r="A251" t="s">
-        <v>11</v>
-      </c>
-      <c r="B251" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C251" t="s">
-        <v>10</v>
-      </c>
-      <c r="D251" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E251" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F251" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G251" t="s">
-        <v>68</v>
-      </c>
-      <c r="H251">
-        <v>1</v>
-      </c>
-      <c r="I251">
-        <v>150.51</v>
-      </c>
-      <c r="J251">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" ht="15" thickBot="1">
-      <c r="A252" t="s">
-        <v>11</v>
-      </c>
-      <c r="B252" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C252" t="s">
-        <v>10</v>
-      </c>
-      <c r="D252" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E252" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F252" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G252" t="s">
-        <v>31</v>
-      </c>
-      <c r="H252">
-        <v>2</v>
-      </c>
-      <c r="I252">
-        <v>101.73</v>
-      </c>
-      <c r="J252">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" ht="15" thickBot="1">
-      <c r="A253" t="s">
-        <v>11</v>
-      </c>
-      <c r="B253" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C253" t="s">
-        <v>10</v>
-      </c>
-      <c r="D253" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E253" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F253" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G253" t="s">
-        <v>31</v>
-      </c>
-      <c r="H253">
-        <v>1</v>
-      </c>
-      <c r="I253">
-        <v>101.73</v>
-      </c>
-      <c r="J253">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" ht="15" thickBot="1">
-      <c r="A254" t="s">
-        <v>11</v>
-      </c>
-      <c r="B254" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C254" t="s">
-        <v>10</v>
-      </c>
-      <c r="D254" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E254" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F254" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G254" t="s">
-        <v>32</v>
-      </c>
-      <c r="H254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="15">
-        <v>1822.62</v>
-      </c>
-      <c r="J254">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" ht="15" thickBot="1">
-      <c r="A255" t="s">
-        <v>11</v>
-      </c>
-      <c r="B255" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C255" t="s">
-        <v>10</v>
-      </c>
-      <c r="D255" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E255" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F255" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G255" t="s">
-        <v>64</v>
-      </c>
-      <c r="H255">
-        <v>2</v>
-      </c>
-      <c r="I255" s="15">
-        <v>2200.2800000000002</v>
-      </c>
-      <c r="J255">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" ht="15" thickBot="1">
-      <c r="A256" t="s">
-        <v>11</v>
-      </c>
-      <c r="B256" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C256" t="s">
-        <v>10</v>
-      </c>
-      <c r="D256" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E256" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F256" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G256" t="s">
-        <v>40</v>
-      </c>
-      <c r="H256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="15">
-        <v>2828.06</v>
-      </c>
-      <c r="J256">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" ht="15" thickBot="1">
-      <c r="A257" t="s">
-        <v>11</v>
-      </c>
-      <c r="B257" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C257" t="s">
-        <v>10</v>
-      </c>
-      <c r="D257" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E257" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F257" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G257" t="s">
-        <v>69</v>
-      </c>
-      <c r="H257">
-        <v>1</v>
-      </c>
-      <c r="I257">
-        <v>81.99</v>
-      </c>
-      <c r="J257">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" ht="15" thickBot="1">
-      <c r="A258" t="s">
-        <v>11</v>
-      </c>
-      <c r="B258" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C258" t="s">
-        <v>10</v>
-      </c>
-      <c r="D258" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E258" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F258" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G258" t="s">
-        <v>55</v>
-      </c>
-      <c r="H258">
-        <v>1</v>
-      </c>
-      <c r="I258">
-        <v>929.82</v>
-      </c>
-      <c r="J258">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" ht="15" thickBot="1">
-      <c r="A259" t="s">
-        <v>11</v>
-      </c>
-      <c r="B259" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C259" t="s">
-        <v>10</v>
-      </c>
-      <c r="D259" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E259" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F259" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G259" t="s">
-        <v>42</v>
-      </c>
-      <c r="H259">
-        <v>1</v>
-      </c>
-      <c r="I259" s="15">
-        <v>1961.63</v>
-      </c>
-      <c r="J259">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" ht="15" thickBot="1">
-      <c r="A260" t="s">
-        <v>11</v>
-      </c>
-      <c r="B260" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C260" t="s">
-        <v>10</v>
-      </c>
-      <c r="D260" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E260" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F260" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G260" t="s">
-        <v>70</v>
-      </c>
-      <c r="H260">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15">
-        <v>2197.2600000000002</v>
-      </c>
-      <c r="J260">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" ht="15" thickBot="1">
-      <c r="A261" t="s">
-        <v>11</v>
-      </c>
-      <c r="B261" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C261" t="s">
-        <v>10</v>
-      </c>
-      <c r="D261" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E261" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F261" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G261" t="s">
-        <v>71</v>
-      </c>
-      <c r="H261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15">
-        <v>2639.12</v>
-      </c>
-      <c r="J261">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" ht="15" thickBot="1">
-      <c r="A262" t="s">
-        <v>11</v>
-      </c>
-      <c r="B262" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C262" t="s">
-        <v>10</v>
-      </c>
-      <c r="D262" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E262" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F262" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G262" t="s">
-        <v>72</v>
-      </c>
-      <c r="H262">
-        <v>1</v>
-      </c>
-      <c r="I262">
-        <v>951.49</v>
-      </c>
-      <c r="J262">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" ht="15" thickBot="1">
-      <c r="A263" t="s">
-        <v>11</v>
-      </c>
-      <c r="B263" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C263" t="s">
-        <v>10</v>
-      </c>
-      <c r="D263" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E263" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F263" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G263" t="s">
-        <v>72</v>
-      </c>
-      <c r="H263">
-        <v>1</v>
-      </c>
-      <c r="I263">
-        <v>951.49</v>
-      </c>
-      <c r="J263">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" ht="15" thickBot="1">
-      <c r="A264" t="s">
-        <v>11</v>
-      </c>
-      <c r="B264" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C264" t="s">
-        <v>10</v>
-      </c>
-      <c r="D264" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E264" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F264" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G264" t="s">
-        <v>72</v>
-      </c>
-      <c r="H264">
-        <v>1</v>
-      </c>
-      <c r="I264">
-        <v>951.49</v>
-      </c>
-      <c r="J264">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" ht="15" thickBot="1">
-      <c r="A265" t="s">
-        <v>11</v>
-      </c>
-      <c r="B265" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C265" t="s">
-        <v>10</v>
-      </c>
-      <c r="D265" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E265" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F265" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G265" t="s">
-        <v>13</v>
-      </c>
-      <c r="H265">
-        <v>1</v>
-      </c>
-      <c r="I265" s="15">
-        <v>2862.5</v>
-      </c>
-      <c r="J265">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" ht="15" thickBot="1">
-      <c r="A266" t="s">
-        <v>11</v>
-      </c>
-      <c r="B266" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C266" t="s">
-        <v>10</v>
-      </c>
-      <c r="D266" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E266" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F266" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G266" t="s">
-        <v>13</v>
-      </c>
-      <c r="H266">
-        <v>1</v>
-      </c>
-      <c r="I266" s="15">
-        <v>2862.5</v>
-      </c>
-      <c r="J266">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" ht="15" thickBot="1">
-      <c r="A267" t="s">
-        <v>11</v>
-      </c>
-      <c r="B267" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C267" t="s">
-        <v>10</v>
-      </c>
-      <c r="D267" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E267" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F267" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G267" t="s">
-        <v>62</v>
-      </c>
-      <c r="H267">
-        <v>1</v>
-      </c>
-      <c r="I267">
-        <v>462.12</v>
-      </c>
-      <c r="J267">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" ht="15" thickBot="1">
-      <c r="A268" t="s">
-        <v>11</v>
-      </c>
-      <c r="B268" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C268" t="s">
-        <v>10</v>
-      </c>
-      <c r="D268" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E268" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F268" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G268" t="s">
-        <v>62</v>
-      </c>
-      <c r="H268">
-        <v>1</v>
-      </c>
-      <c r="I268">
-        <v>462.12</v>
-      </c>
-      <c r="J268">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" ht="15" thickBot="1">
-      <c r="A269" t="s">
-        <v>11</v>
-      </c>
-      <c r="B269" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C269" t="s">
-        <v>10</v>
-      </c>
-      <c r="D269" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E269" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F269" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G269" t="s">
-        <v>12</v>
-      </c>
-      <c r="H269">
-        <v>1</v>
-      </c>
-      <c r="I269">
-        <v>18.86</v>
-      </c>
-      <c r="J269">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" ht="15" thickBot="1">
-      <c r="A270" t="s">
-        <v>11</v>
-      </c>
-      <c r="B270" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C270" t="s">
-        <v>10</v>
-      </c>
-      <c r="D270" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E270" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F270" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G270" t="s">
-        <v>12</v>
-      </c>
-      <c r="H270">
-        <v>1</v>
-      </c>
-      <c r="I270">
-        <v>18.86</v>
-      </c>
-      <c r="J270">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" ht="15" thickBot="1">
-      <c r="A271" t="s">
-        <v>11</v>
-      </c>
-      <c r="B271" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C271" t="s">
-        <v>10</v>
-      </c>
-      <c r="D271" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E271" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F271" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G271" t="s">
-        <v>60</v>
-      </c>
-      <c r="H271">
-        <v>1</v>
-      </c>
-      <c r="I271">
-        <v>27.58</v>
-      </c>
-      <c r="J271">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" ht="15" thickBot="1">
-      <c r="A272" t="s">
-        <v>11</v>
-      </c>
-      <c r="B272" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C272" t="s">
-        <v>10</v>
-      </c>
-      <c r="D272" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E272" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F272" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G272" t="s">
-        <v>60</v>
-      </c>
-      <c r="H272">
-        <v>1</v>
-      </c>
-      <c r="I272">
-        <v>27.58</v>
-      </c>
-      <c r="J272">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" ht="15" thickBot="1">
-      <c r="A273" t="s">
-        <v>11</v>
-      </c>
-      <c r="B273" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C273" t="s">
-        <v>10</v>
-      </c>
-      <c r="D273" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E273" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F273" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G273" t="s">
-        <v>69</v>
-      </c>
-      <c r="H273">
-        <v>1</v>
-      </c>
-      <c r="I273">
-        <v>81.99</v>
-      </c>
-      <c r="J273">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" ht="15" thickBot="1">
-      <c r="A274" t="s">
-        <v>11</v>
-      </c>
-      <c r="B274" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C274" t="s">
-        <v>10</v>
-      </c>
-      <c r="D274" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E274" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F274" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G274" t="s">
-        <v>37</v>
-      </c>
-      <c r="H274">
-        <v>1</v>
-      </c>
-      <c r="I274">
-        <v>637.12</v>
-      </c>
-      <c r="J274">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" ht="15" thickBot="1">
-      <c r="A275" t="s">
-        <v>11</v>
-      </c>
-      <c r="B275" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C275" t="s">
-        <v>10</v>
-      </c>
-      <c r="D275" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E275" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F275" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G275" t="s">
-        <v>15</v>
-      </c>
-      <c r="H275">
-        <v>1</v>
-      </c>
-      <c r="I275">
-        <v>49.06</v>
-      </c>
-      <c r="J275">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" ht="15" thickBot="1">
-      <c r="A276" t="s">
-        <v>11</v>
-      </c>
-      <c r="B276" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C276" t="s">
-        <v>10</v>
-      </c>
-      <c r="D276" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E276" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F276" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G276" t="s">
-        <v>73</v>
-      </c>
-      <c r="H276">
-        <v>3</v>
-      </c>
-      <c r="I276" s="15">
-        <v>1021.45</v>
-      </c>
-      <c r="J276">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" ht="15" thickBot="1">
-      <c r="A277" t="s">
-        <v>11</v>
-      </c>
-      <c r="B277" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C277" t="s">
-        <v>10</v>
-      </c>
-      <c r="D277" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E277" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F277" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G277" t="s">
-        <v>18</v>
-      </c>
-      <c r="H277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="15">
-        <v>1693.73</v>
-      </c>
-      <c r="J277">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" ht="15" thickBot="1">
-      <c r="A278" t="s">
-        <v>11</v>
-      </c>
-      <c r="B278" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C278" t="s">
-        <v>10</v>
-      </c>
-      <c r="D278" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E278" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F278" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G278" t="s">
-        <v>74</v>
-      </c>
-      <c r="H278">
-        <v>1</v>
-      </c>
-      <c r="I278" s="15">
-        <v>1059.8399999999999</v>
-      </c>
-      <c r="J278">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" ht="15" thickBot="1">
-      <c r="A279" t="s">
-        <v>11</v>
-      </c>
-      <c r="B279" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C279" t="s">
-        <v>10</v>
-      </c>
-      <c r="D279" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E279" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F279" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G279" t="s">
-        <v>64</v>
-      </c>
-      <c r="H279">
-        <v>1</v>
-      </c>
-      <c r="I279" s="15">
-        <v>2185.67</v>
-      </c>
-      <c r="J279">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" ht="15" thickBot="1">
-      <c r="A280" t="s">
-        <v>11</v>
-      </c>
-      <c r="B280" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C280" t="s">
-        <v>10</v>
-      </c>
-      <c r="D280" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E280" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F280" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G280" t="s">
-        <v>58</v>
-      </c>
-      <c r="H280">
-        <v>2</v>
-      </c>
-      <c r="I280">
-        <v>560</v>
-      </c>
-      <c r="J280">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" ht="15" thickBot="1">
-      <c r="A281" t="s">
-        <v>11</v>
-      </c>
-      <c r="B281" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C281" t="s">
-        <v>10</v>
-      </c>
-      <c r="D281" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E281" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F281" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G281" t="s">
-        <v>12</v>
-      </c>
-      <c r="H281">
-        <v>1</v>
-      </c>
-      <c r="I281">
-        <v>18.86</v>
-      </c>
-      <c r="J281">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" ht="15" thickBot="1">
-      <c r="A282" t="s">
-        <v>11</v>
-      </c>
-      <c r="B282" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C282" t="s">
-        <v>10</v>
-      </c>
-      <c r="D282" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E282" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F282" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
-      <c r="H282">
-        <v>2</v>
-      </c>
-      <c r="I282">
-        <v>18.86</v>
-      </c>
-      <c r="J282">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" ht="15" thickBot="1">
-      <c r="A283" t="s">
-        <v>11</v>
-      </c>
-      <c r="B283" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C283" t="s">
-        <v>10</v>
-      </c>
-      <c r="D283" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E283" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F283" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G283" t="s">
-        <v>60</v>
-      </c>
-      <c r="H283">
-        <v>1</v>
-      </c>
-      <c r="I283">
-        <v>27.58</v>
-      </c>
-      <c r="J283">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" ht="15" thickBot="1">
-      <c r="A284" t="s">
-        <v>11</v>
-      </c>
-      <c r="B284" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C284" t="s">
-        <v>10</v>
-      </c>
-      <c r="D284" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E284" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F284" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G284" t="s">
-        <v>60</v>
-      </c>
-      <c r="H284">
-        <v>2</v>
-      </c>
-      <c r="I284">
-        <v>27.58</v>
-      </c>
-      <c r="J284">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" ht="15" thickBot="1">
-      <c r="A285" t="s">
-        <v>11</v>
-      </c>
-      <c r="B285" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C285" t="s">
-        <v>10</v>
-      </c>
-      <c r="D285" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E285" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F285" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G285" t="s">
-        <v>55</v>
-      </c>
-      <c r="H285">
-        <v>1</v>
-      </c>
-      <c r="I285">
-        <v>929.82</v>
-      </c>
-      <c r="J285">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" ht="15" thickBot="1">
-      <c r="A286" t="s">
-        <v>11</v>
-      </c>
-      <c r="B286" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C286" t="s">
-        <v>10</v>
-      </c>
-      <c r="D286" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E286" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F286" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G286" t="s">
-        <v>46</v>
-      </c>
-      <c r="H286">
-        <v>1</v>
-      </c>
-      <c r="I286" s="15">
-        <v>1429</v>
-      </c>
-      <c r="J286">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" ht="15" thickBot="1">
-      <c r="A287" t="s">
-        <v>11</v>
-      </c>
-      <c r="B287" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C287" t="s">
-        <v>10</v>
-      </c>
-      <c r="D287" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E287" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F287" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G287" t="s">
-        <v>62</v>
-      </c>
-      <c r="H287">
-        <v>1</v>
-      </c>
-      <c r="I287">
-        <v>462.12</v>
-      </c>
-      <c r="J287">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" ht="15" thickBot="1">
-      <c r="A288" t="s">
-        <v>11</v>
-      </c>
-      <c r="B288" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C288" t="s">
-        <v>10</v>
-      </c>
-      <c r="D288" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E288" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F288" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G288" t="s">
-        <v>75</v>
-      </c>
-      <c r="H288">
-        <v>1</v>
-      </c>
-      <c r="I288">
-        <v>371.66</v>
-      </c>
-      <c r="J288">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" ht="15" thickBot="1">
-      <c r="A289" t="s">
-        <v>11</v>
-      </c>
-      <c r="B289" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C289" t="s">
-        <v>10</v>
-      </c>
-      <c r="D289" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E289" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F289" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G289" t="s">
-        <v>12</v>
-      </c>
-      <c r="H289">
-        <v>1</v>
-      </c>
-      <c r="I289">
-        <v>18.86</v>
-      </c>
-      <c r="J289">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" ht="15" thickBot="1">
-      <c r="A290" t="s">
-        <v>11</v>
-      </c>
-      <c r="B290" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C290" t="s">
-        <v>10</v>
-      </c>
-      <c r="D290" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E290" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F290" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
-      <c r="H290">
-        <v>1</v>
-      </c>
-      <c r="I290">
-        <v>18.86</v>
-      </c>
-      <c r="J290">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" ht="15" thickBot="1">
-      <c r="A291" t="s">
-        <v>11</v>
-      </c>
-      <c r="B291" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C291" t="s">
-        <v>10</v>
-      </c>
-      <c r="D291" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E291" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F291" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G291" t="s">
-        <v>60</v>
-      </c>
-      <c r="H291">
-        <v>1</v>
-      </c>
-      <c r="I291">
-        <v>27.58</v>
-      </c>
-      <c r="J291">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" ht="15" thickBot="1">
-      <c r="A292" t="s">
-        <v>11</v>
-      </c>
-      <c r="B292" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C292" t="s">
-        <v>10</v>
-      </c>
-      <c r="D292" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E292" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F292" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G292" t="s">
-        <v>60</v>
-      </c>
-      <c r="H292">
-        <v>1</v>
-      </c>
-      <c r="I292">
-        <v>27.58</v>
-      </c>
-      <c r="J292">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" ht="15" thickBot="1">
-      <c r="A293" t="s">
-        <v>11</v>
-      </c>
-      <c r="B293" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C293" t="s">
-        <v>10</v>
-      </c>
-      <c r="D293" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E293" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F293" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G293" t="s">
-        <v>76</v>
-      </c>
-      <c r="H293">
-        <v>1</v>
-      </c>
-      <c r="I293">
-        <v>544.72</v>
-      </c>
-      <c r="J293">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" ht="15" thickBot="1">
-      <c r="A294" t="s">
-        <v>11</v>
-      </c>
-      <c r="B294" s="16">
-        <v>45716</v>
-      </c>
-      <c r="C294" t="s">
-        <v>10</v>
-      </c>
-      <c r="D294" s="16">
-        <v>45716</v>
-      </c>
-      <c r="E294" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F294" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G294" t="s">
-        <v>77</v>
-      </c>
-      <c r="H294">
-        <v>1</v>
-      </c>
-      <c r="I294">
-        <v>153.38</v>
-      </c>
-      <c r="J294">
-        <v>293</v>
-      </c>
+      <c r="B192" s="16"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="I192" s="15"/>
+    </row>
+    <row r="193" spans="2:9" ht="15" thickBot="1">
+      <c r="B193" s="16"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="I193" s="15"/>
+    </row>
+    <row r="194" spans="2:9" ht="15" thickBot="1">
+      <c r="B194" s="16"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="I194" s="15"/>
+    </row>
+    <row r="195" spans="2:9" ht="15" thickBot="1">
+      <c r="B195" s="16"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+    </row>
+    <row r="196" spans="2:9" ht="15" thickBot="1">
+      <c r="B196" s="16"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+    </row>
+    <row r="197" spans="2:9" ht="15" thickBot="1">
+      <c r="B197" s="16"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+    </row>
+    <row r="198" spans="2:9" ht="15" thickBot="1">
+      <c r="B198" s="16"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
+      <c r="I198" s="15"/>
+    </row>
+    <row r="199" spans="2:9" ht="15" thickBot="1">
+      <c r="B199" s="16"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="8"/>
+    </row>
+    <row r="200" spans="2:9" ht="15" thickBot="1">
+      <c r="B200" s="16"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
+    </row>
+    <row r="201" spans="2:9" ht="15" thickBot="1">
+      <c r="B201" s="16"/>
+      <c r="D201" s="16"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+    </row>
+    <row r="202" spans="2:9" ht="15" thickBot="1">
+      <c r="B202" s="16"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="8"/>
+      <c r="I202" s="15"/>
+    </row>
+    <row r="203" spans="2:9" ht="15" thickBot="1">
+      <c r="B203" s="16"/>
+      <c r="D203" s="16"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8"/>
+      <c r="I203" s="15"/>
+    </row>
+    <row r="204" spans="2:9" ht="15" thickBot="1">
+      <c r="B204" s="16"/>
+      <c r="D204" s="16"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="8"/>
+    </row>
+    <row r="205" spans="2:9" ht="15" thickBot="1">
+      <c r="B205" s="16"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="8"/>
+      <c r="F205" s="8"/>
+    </row>
+    <row r="206" spans="2:9" ht="15" thickBot="1">
+      <c r="B206" s="16"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="8"/>
+    </row>
+    <row r="207" spans="2:9" ht="15" thickBot="1">
+      <c r="B207" s="16"/>
+      <c r="D207" s="16"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="8"/>
+    </row>
+    <row r="208" spans="2:9" ht="15" thickBot="1">
+      <c r="B208" s="16"/>
+      <c r="D208" s="16"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+    </row>
+    <row r="209" spans="2:9" ht="15" thickBot="1">
+      <c r="B209" s="16"/>
+      <c r="D209" s="16"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+      <c r="I209" s="15"/>
+    </row>
+    <row r="210" spans="2:9" ht="15" thickBot="1">
+      <c r="B210" s="16"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="8"/>
+      <c r="I210" s="15"/>
+    </row>
+    <row r="211" spans="2:9" ht="15" thickBot="1">
+      <c r="B211" s="16"/>
+      <c r="D211" s="16"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="8"/>
+      <c r="I211" s="15"/>
+    </row>
+    <row r="212" spans="2:9" ht="15" thickBot="1">
+      <c r="B212" s="16"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="8"/>
+      <c r="F212" s="8"/>
+      <c r="I212" s="15"/>
+    </row>
+    <row r="213" spans="2:9" ht="15" thickBot="1">
+      <c r="B213" s="16"/>
+      <c r="D213" s="16"/>
+      <c r="E213" s="8"/>
+      <c r="F213" s="8"/>
+    </row>
+    <row r="214" spans="2:9" ht="15" thickBot="1">
+      <c r="B214" s="16"/>
+      <c r="D214" s="16"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="8"/>
+      <c r="I214" s="15"/>
+    </row>
+    <row r="215" spans="2:9" ht="15" thickBot="1">
+      <c r="B215" s="16"/>
+      <c r="D215" s="16"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
+      <c r="I215" s="15"/>
+    </row>
+    <row r="216" spans="2:9" ht="15" thickBot="1">
+      <c r="B216" s="16"/>
+      <c r="D216" s="16"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="I216" s="15"/>
+    </row>
+    <row r="217" spans="2:9" ht="15" thickBot="1">
+      <c r="B217" s="16"/>
+      <c r="D217" s="16"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="8"/>
+      <c r="I217" s="15"/>
+    </row>
+    <row r="218" spans="2:9" ht="15" thickBot="1">
+      <c r="B218" s="16"/>
+      <c r="D218" s="16"/>
+      <c r="E218" s="8"/>
+      <c r="F218" s="8"/>
+      <c r="I218" s="15"/>
+    </row>
+    <row r="219" spans="2:9" ht="15" thickBot="1">
+      <c r="B219" s="16"/>
+      <c r="D219" s="16"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="8"/>
+      <c r="I219" s="15"/>
+    </row>
+    <row r="220" spans="2:9" ht="15" thickBot="1">
+      <c r="B220" s="16"/>
+      <c r="D220" s="16"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="8"/>
+      <c r="I220" s="15"/>
+    </row>
+    <row r="221" spans="2:9" ht="15" thickBot="1">
+      <c r="B221" s="16"/>
+      <c r="D221" s="16"/>
+      <c r="E221" s="8"/>
+      <c r="F221" s="8"/>
+      <c r="I221" s="15"/>
+    </row>
+    <row r="222" spans="2:9" ht="15" thickBot="1">
+      <c r="B222" s="16"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="8"/>
+    </row>
+    <row r="223" spans="2:9" ht="15" thickBot="1">
+      <c r="B223" s="16"/>
+      <c r="D223" s="16"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="I223" s="15"/>
+    </row>
+    <row r="224" spans="2:9" ht="15" thickBot="1">
+      <c r="B224" s="16"/>
+      <c r="D224" s="16"/>
+      <c r="E224" s="8"/>
+      <c r="F224" s="8"/>
+      <c r="I224" s="15"/>
+    </row>
+    <row r="225" spans="2:9" ht="15" thickBot="1">
+      <c r="B225" s="16"/>
+      <c r="D225" s="16"/>
+      <c r="E225" s="8"/>
+      <c r="F225" s="8"/>
+    </row>
+    <row r="226" spans="2:9" ht="15" thickBot="1">
+      <c r="B226" s="16"/>
+      <c r="D226" s="16"/>
+      <c r="E226" s="8"/>
+      <c r="F226" s="8"/>
+    </row>
+    <row r="227" spans="2:9" ht="15" thickBot="1">
+      <c r="B227" s="16"/>
+      <c r="D227" s="16"/>
+      <c r="E227" s="8"/>
+      <c r="F227" s="8"/>
+    </row>
+    <row r="228" spans="2:9" ht="15" thickBot="1">
+      <c r="B228" s="16"/>
+      <c r="D228" s="16"/>
+      <c r="E228" s="8"/>
+      <c r="F228" s="8"/>
+    </row>
+    <row r="229" spans="2:9" ht="15" thickBot="1">
+      <c r="B229" s="16"/>
+      <c r="D229" s="16"/>
+      <c r="E229" s="8"/>
+      <c r="F229" s="8"/>
+    </row>
+    <row r="230" spans="2:9" ht="15" thickBot="1">
+      <c r="B230" s="16"/>
+      <c r="D230" s="16"/>
+      <c r="E230" s="8"/>
+      <c r="F230" s="8"/>
+    </row>
+    <row r="231" spans="2:9" ht="15" thickBot="1">
+      <c r="B231" s="16"/>
+      <c r="D231" s="16"/>
+      <c r="E231" s="8"/>
+      <c r="F231" s="8"/>
+      <c r="I231" s="15"/>
+    </row>
+    <row r="232" spans="2:9" ht="15" thickBot="1">
+      <c r="B232" s="16"/>
+      <c r="D232" s="16"/>
+      <c r="E232" s="8"/>
+      <c r="F232" s="8"/>
+    </row>
+    <row r="233" spans="2:9" ht="15" thickBot="1">
+      <c r="B233" s="16"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="8"/>
+      <c r="F233" s="8"/>
+    </row>
+    <row r="234" spans="2:9" ht="15" thickBot="1">
+      <c r="B234" s="16"/>
+      <c r="D234" s="16"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="8"/>
+    </row>
+    <row r="235" spans="2:9" ht="15" thickBot="1">
+      <c r="B235" s="16"/>
+      <c r="D235" s="16"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="8"/>
+      <c r="I235" s="15"/>
+    </row>
+    <row r="236" spans="2:9" ht="15" thickBot="1">
+      <c r="B236" s="16"/>
+      <c r="D236" s="16"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="8"/>
+      <c r="I236" s="15"/>
+    </row>
+    <row r="237" spans="2:9" ht="15" thickBot="1">
+      <c r="B237" s="16"/>
+      <c r="D237" s="16"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="8"/>
+    </row>
+    <row r="238" spans="2:9" ht="15" thickBot="1">
+      <c r="B238" s="16"/>
+      <c r="D238" s="16"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="8"/>
+    </row>
+    <row r="239" spans="2:9" ht="15" thickBot="1">
+      <c r="B239" s="16"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="8"/>
+      <c r="I239" s="15"/>
+    </row>
+    <row r="240" spans="2:9" ht="15" thickBot="1">
+      <c r="B240" s="16"/>
+      <c r="D240" s="16"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="8"/>
+      <c r="I240" s="15"/>
+    </row>
+    <row r="241" spans="2:9" ht="15" thickBot="1">
+      <c r="B241" s="16"/>
+      <c r="D241" s="16"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="8"/>
+      <c r="I241" s="15"/>
+    </row>
+    <row r="242" spans="2:9" ht="15" thickBot="1">
+      <c r="B242" s="16"/>
+      <c r="D242" s="16"/>
+      <c r="E242" s="8"/>
+      <c r="F242" s="8"/>
+      <c r="I242" s="15"/>
+    </row>
+    <row r="243" spans="2:9" ht="15" thickBot="1">
+      <c r="B243" s="16"/>
+      <c r="D243" s="16"/>
+      <c r="E243" s="8"/>
+      <c r="F243" s="8"/>
+    </row>
+    <row r="244" spans="2:9" ht="15" thickBot="1">
+      <c r="B244" s="16"/>
+      <c r="D244" s="16"/>
+      <c r="E244" s="8"/>
+      <c r="F244" s="8"/>
+    </row>
+    <row r="245" spans="2:9" ht="15" thickBot="1">
+      <c r="B245" s="16"/>
+      <c r="D245" s="16"/>
+      <c r="E245" s="8"/>
+      <c r="F245" s="8"/>
+    </row>
+    <row r="246" spans="2:9" ht="15" thickBot="1">
+      <c r="B246" s="16"/>
+      <c r="D246" s="16"/>
+      <c r="E246" s="8"/>
+      <c r="F246" s="8"/>
+    </row>
+    <row r="247" spans="2:9" ht="15" thickBot="1">
+      <c r="B247" s="16"/>
+      <c r="D247" s="16"/>
+      <c r="E247" s="8"/>
+      <c r="F247" s="8"/>
+    </row>
+    <row r="248" spans="2:9" ht="15" thickBot="1">
+      <c r="B248" s="16"/>
+      <c r="D248" s="16"/>
+      <c r="E248" s="8"/>
+      <c r="F248" s="8"/>
+    </row>
+    <row r="249" spans="2:9" ht="15" thickBot="1">
+      <c r="B249" s="16"/>
+      <c r="D249" s="16"/>
+      <c r="E249" s="8"/>
+      <c r="F249" s="8"/>
+    </row>
+    <row r="250" spans="2:9" ht="15" thickBot="1">
+      <c r="B250" s="16"/>
+      <c r="D250" s="16"/>
+      <c r="E250" s="8"/>
+      <c r="F250" s="8"/>
+    </row>
+    <row r="251" spans="2:9" ht="15" thickBot="1">
+      <c r="B251" s="16"/>
+      <c r="D251" s="16"/>
+      <c r="E251" s="8"/>
+      <c r="F251" s="8"/>
+    </row>
+    <row r="252" spans="2:9" ht="15" thickBot="1">
+      <c r="B252" s="16"/>
+      <c r="D252" s="16"/>
+      <c r="E252" s="8"/>
+      <c r="F252" s="8"/>
+    </row>
+    <row r="253" spans="2:9" ht="15" thickBot="1">
+      <c r="B253" s="16"/>
+      <c r="D253" s="16"/>
+      <c r="E253" s="8"/>
+      <c r="F253" s="8"/>
+    </row>
+    <row r="254" spans="2:9" ht="15" thickBot="1">
+      <c r="B254" s="16"/>
+      <c r="D254" s="16"/>
+      <c r="E254" s="8"/>
+      <c r="F254" s="8"/>
+      <c r="I254" s="15"/>
+    </row>
+    <row r="255" spans="2:9" ht="15" thickBot="1">
+      <c r="B255" s="16"/>
+      <c r="D255" s="16"/>
+      <c r="E255" s="8"/>
+      <c r="F255" s="8"/>
+      <c r="I255" s="15"/>
+    </row>
+    <row r="256" spans="2:9" ht="15" thickBot="1">
+      <c r="B256" s="16"/>
+      <c r="D256" s="16"/>
+      <c r="E256" s="8"/>
+      <c r="F256" s="8"/>
+      <c r="I256" s="15"/>
+    </row>
+    <row r="257" spans="2:9" ht="15" thickBot="1">
+      <c r="B257" s="16"/>
+      <c r="D257" s="16"/>
+      <c r="E257" s="8"/>
+      <c r="F257" s="8"/>
+    </row>
+    <row r="258" spans="2:9" ht="15" thickBot="1">
+      <c r="B258" s="16"/>
+      <c r="D258" s="16"/>
+      <c r="E258" s="8"/>
+      <c r="F258" s="8"/>
+    </row>
+    <row r="259" spans="2:9" ht="15" thickBot="1">
+      <c r="B259" s="16"/>
+      <c r="D259" s="16"/>
+      <c r="E259" s="8"/>
+      <c r="F259" s="8"/>
+      <c r="I259" s="15"/>
+    </row>
+    <row r="260" spans="2:9" ht="15" thickBot="1">
+      <c r="B260" s="16"/>
+      <c r="D260" s="16"/>
+      <c r="E260" s="8"/>
+      <c r="F260" s="8"/>
+      <c r="I260" s="15"/>
+    </row>
+    <row r="261" spans="2:9" ht="15" thickBot="1">
+      <c r="B261" s="16"/>
+      <c r="D261" s="16"/>
+      <c r="E261" s="8"/>
+      <c r="F261" s="8"/>
+      <c r="I261" s="15"/>
+    </row>
+    <row r="262" spans="2:9" ht="15" thickBot="1">
+      <c r="B262" s="16"/>
+      <c r="D262" s="16"/>
+      <c r="E262" s="8"/>
+      <c r="F262" s="8"/>
+    </row>
+    <row r="263" spans="2:9" ht="15" thickBot="1">
+      <c r="B263" s="16"/>
+      <c r="D263" s="16"/>
+      <c r="E263" s="8"/>
+      <c r="F263" s="8"/>
+    </row>
+    <row r="264" spans="2:9" ht="15" thickBot="1">
+      <c r="B264" s="16"/>
+      <c r="D264" s="16"/>
+      <c r="E264" s="8"/>
+      <c r="F264" s="8"/>
+    </row>
+    <row r="265" spans="2:9" ht="15" thickBot="1">
+      <c r="B265" s="16"/>
+      <c r="D265" s="16"/>
+      <c r="E265" s="8"/>
+      <c r="F265" s="8"/>
+      <c r="I265" s="15"/>
+    </row>
+    <row r="266" spans="2:9" ht="15" thickBot="1">
+      <c r="B266" s="16"/>
+      <c r="D266" s="16"/>
+      <c r="E266" s="8"/>
+      <c r="F266" s="8"/>
+      <c r="I266" s="15"/>
+    </row>
+    <row r="267" spans="2:9" ht="15" thickBot="1">
+      <c r="B267" s="16"/>
+      <c r="D267" s="16"/>
+      <c r="E267" s="8"/>
+      <c r="F267" s="8"/>
+    </row>
+    <row r="268" spans="2:9" ht="15" thickBot="1">
+      <c r="B268" s="16"/>
+      <c r="D268" s="16"/>
+      <c r="E268" s="8"/>
+      <c r="F268" s="8"/>
+    </row>
+    <row r="269" spans="2:9" ht="15" thickBot="1">
+      <c r="B269" s="16"/>
+      <c r="D269" s="16"/>
+      <c r="E269" s="8"/>
+      <c r="F269" s="8"/>
+    </row>
+    <row r="270" spans="2:9" ht="15" thickBot="1">
+      <c r="B270" s="16"/>
+      <c r="D270" s="16"/>
+      <c r="E270" s="8"/>
+      <c r="F270" s="8"/>
+    </row>
+    <row r="271" spans="2:9" ht="15" thickBot="1">
+      <c r="B271" s="16"/>
+      <c r="D271" s="16"/>
+      <c r="E271" s="8"/>
+      <c r="F271" s="8"/>
+    </row>
+    <row r="272" spans="2:9" ht="15" thickBot="1">
+      <c r="B272" s="16"/>
+      <c r="D272" s="16"/>
+      <c r="E272" s="8"/>
+      <c r="F272" s="8"/>
+    </row>
+    <row r="273" spans="2:9" ht="15" thickBot="1">
+      <c r="B273" s="16"/>
+      <c r="D273" s="16"/>
+      <c r="E273" s="8"/>
+      <c r="F273" s="8"/>
+    </row>
+    <row r="274" spans="2:9" ht="15" thickBot="1">
+      <c r="B274" s="16"/>
+      <c r="D274" s="16"/>
+      <c r="E274" s="8"/>
+      <c r="F274" s="8"/>
+    </row>
+    <row r="275" spans="2:9" ht="15" thickBot="1">
+      <c r="B275" s="16"/>
+      <c r="D275" s="16"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="8"/>
+    </row>
+    <row r="276" spans="2:9" ht="15" thickBot="1">
+      <c r="B276" s="16"/>
+      <c r="D276" s="16"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="8"/>
+      <c r="I276" s="15"/>
+    </row>
+    <row r="277" spans="2:9" ht="15" thickBot="1">
+      <c r="B277" s="16"/>
+      <c r="D277" s="16"/>
+      <c r="E277" s="8"/>
+      <c r="F277" s="8"/>
+      <c r="I277" s="15"/>
+    </row>
+    <row r="278" spans="2:9" ht="15" thickBot="1">
+      <c r="B278" s="16"/>
+      <c r="D278" s="16"/>
+      <c r="E278" s="8"/>
+      <c r="F278" s="8"/>
+      <c r="I278" s="15"/>
+    </row>
+    <row r="279" spans="2:9" ht="15" thickBot="1">
+      <c r="B279" s="16"/>
+      <c r="D279" s="16"/>
+      <c r="E279" s="8"/>
+      <c r="F279" s="8"/>
+      <c r="I279" s="15"/>
+    </row>
+    <row r="280" spans="2:9" ht="15" thickBot="1">
+      <c r="B280" s="16"/>
+      <c r="D280" s="16"/>
+      <c r="E280" s="8"/>
+      <c r="F280" s="8"/>
+    </row>
+    <row r="281" spans="2:9" ht="15" thickBot="1">
+      <c r="B281" s="16"/>
+      <c r="D281" s="16"/>
+      <c r="E281" s="8"/>
+      <c r="F281" s="8"/>
+    </row>
+    <row r="282" spans="2:9" ht="15" thickBot="1">
+      <c r="B282" s="16"/>
+      <c r="D282" s="16"/>
+      <c r="E282" s="8"/>
+      <c r="F282" s="8"/>
+    </row>
+    <row r="283" spans="2:9" ht="15" thickBot="1">
+      <c r="B283" s="16"/>
+      <c r="D283" s="16"/>
+      <c r="E283" s="8"/>
+      <c r="F283" s="8"/>
+    </row>
+    <row r="284" spans="2:9" ht="15" thickBot="1">
+      <c r="B284" s="16"/>
+      <c r="D284" s="16"/>
+      <c r="E284" s="8"/>
+      <c r="F284" s="8"/>
+    </row>
+    <row r="285" spans="2:9" ht="15" thickBot="1">
+      <c r="B285" s="16"/>
+      <c r="D285" s="16"/>
+      <c r="E285" s="8"/>
+      <c r="F285" s="8"/>
+    </row>
+    <row r="286" spans="2:9" ht="15" thickBot="1">
+      <c r="B286" s="16"/>
+      <c r="D286" s="16"/>
+      <c r="E286" s="8"/>
+      <c r="F286" s="8"/>
+      <c r="I286" s="15"/>
+    </row>
+    <row r="287" spans="2:9" ht="15" thickBot="1">
+      <c r="B287" s="16"/>
+      <c r="D287" s="16"/>
+      <c r="E287" s="8"/>
+      <c r="F287" s="8"/>
+    </row>
+    <row r="288" spans="2:9" ht="15" thickBot="1">
+      <c r="B288" s="16"/>
+      <c r="D288" s="16"/>
+      <c r="E288" s="8"/>
+      <c r="F288" s="8"/>
+    </row>
+    <row r="289" spans="2:6" ht="15" thickBot="1">
+      <c r="B289" s="16"/>
+      <c r="D289" s="16"/>
+      <c r="E289" s="8"/>
+      <c r="F289" s="8"/>
+    </row>
+    <row r="290" spans="2:6" ht="15" thickBot="1">
+      <c r="B290" s="16"/>
+      <c r="D290" s="16"/>
+      <c r="E290" s="8"/>
+      <c r="F290" s="8"/>
+    </row>
+    <row r="291" spans="2:6" ht="15" thickBot="1">
+      <c r="B291" s="16"/>
+      <c r="D291" s="16"/>
+      <c r="E291" s="8"/>
+      <c r="F291" s="8"/>
+    </row>
+    <row r="292" spans="2:6" ht="15" thickBot="1">
+      <c r="B292" s="16"/>
+      <c r="D292" s="16"/>
+      <c r="E292" s="8"/>
+      <c r="F292" s="8"/>
+    </row>
+    <row r="293" spans="2:6" ht="15" thickBot="1">
+      <c r="B293" s="16"/>
+      <c r="D293" s="16"/>
+      <c r="E293" s="8"/>
+      <c r="F293" s="8"/>
+    </row>
+    <row r="294" spans="2:6" ht="15" thickBot="1">
+      <c r="B294" s="16"/>
+      <c r="D294" s="16"/>
+      <c r="E294" s="8"/>
+      <c r="F294" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
